--- a/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.35/homogenity_scores.xlsx
+++ b/results/mp/deberta/corona/confidence/84/stop-words-topk-masking-0.35/homogenity_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1313" uniqueCount="1127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1311" uniqueCount="1127">
   <si>
     <t>anchor score</t>
   </si>
@@ -505,511 +505,511 @@
     <t>mis</t>
   </si>
   <si>
+    <t>grocery</t>
+  </si>
+  <si>
+    <t>hand</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>online</t>
+  </si>
+  <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>toilet</t>
+  </si>
+  <si>
+    <t>consumer</t>
+  </si>
+  <si>
+    <t>avoid</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>great</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>amp</t>
+  </si>
+  <si>
+    <t>stock</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>stay</t>
+  </si>
+  <si>
+    <t>home</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>stop</t>
+  </si>
+  <si>
+    <t>retail</t>
+  </si>
+  <si>
+    <t>local</t>
+  </si>
+  <si>
+    <t>share</t>
+  </si>
+  <si>
+    <t>us</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>people</t>
+  </si>
+  <si>
+    <t>time</t>
+  </si>
+  <si>
+    <t>health</t>
+  </si>
+  <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>today</t>
+  </si>
+  <si>
+    <t>via</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>delivery</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>go</t>
+  </si>
+  <si>
+    <t>staff</t>
+  </si>
+  <si>
+    <t>shop</t>
+  </si>
+  <si>
+    <t>news</t>
+  </si>
+  <si>
+    <t>see</t>
+  </si>
+  <si>
+    <t>market</t>
+  </si>
+  <si>
+    <t>ia</t>
+  </si>
+  <si>
+    <t>pan</t>
+  </si>
+  <si>
+    <t>data</t>
+  </si>
+  <si>
+    <t>read</t>
+  </si>
+  <si>
+    <t>also</t>
+  </si>
+  <si>
+    <t>customers</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>paper</t>
+  </si>
+  <si>
+    <t>protect</t>
+  </si>
+  <si>
+    <t>food</t>
+  </si>
+  <si>
+    <t>going</t>
+  </si>
+  <si>
+    <t>everyone</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>check</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>give</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>way</t>
+  </si>
+  <si>
+    <t>stores</t>
+  </si>
+  <si>
+    <t>essential</t>
+  </si>
+  <si>
+    <t>look</t>
+  </si>
+  <si>
+    <t>business</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>shelves</t>
+  </si>
+  <si>
+    <t>di</t>
+  </si>
+  <si>
+    <t>times</t>
+  </si>
+  <si>
+    <t>increased</t>
+  </si>
+  <si>
+    <t>uk</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>community</t>
+  </si>
+  <si>
+    <t>week</t>
+  </si>
+  <si>
+    <t>made</t>
+  </si>
+  <si>
+    <t>ho</t>
+  </si>
+  <si>
+    <t>want</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>others</t>
+  </si>
+  <si>
+    <t>got</t>
+  </si>
+  <si>
+    <t>every</t>
+  </si>
+  <si>
+    <t>000</t>
+  </si>
+  <si>
+    <t>healthcare</t>
+  </si>
+  <si>
+    <t>face</t>
+  </si>
+  <si>
+    <t>markets</t>
+  </si>
+  <si>
+    <t>services</t>
+  </si>
+  <si>
+    <t>solution</t>
+  </si>
+  <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>lo</t>
+  </si>
+  <si>
+    <t>taking</t>
+  </si>
+  <si>
+    <t>provide</t>
+  </si>
+  <si>
+    <t>much</t>
+  </si>
+  <si>
+    <t>march</t>
+  </si>
+  <si>
+    <t>shops</t>
+  </si>
+  <si>
+    <t>real</t>
+  </si>
+  <si>
+    <t>foods</t>
+  </si>
+  <si>
+    <t>things</t>
+  </si>
+  <si>
+    <t>credit</t>
+  </si>
+  <si>
+    <t>still</t>
+  </si>
+  <si>
+    <t>since</t>
+  </si>
+  <si>
+    <t>advantage</t>
+  </si>
+  <si>
+    <t>rest</t>
+  </si>
+  <si>
+    <t>small</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>feel</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>per</t>
+  </si>
+  <si>
+    <t>least</t>
+  </si>
+  <si>
+    <t>nice</t>
+  </si>
+  <si>
+    <t>come</t>
+  </si>
+  <si>
+    <t>easy</t>
+  </si>
+  <si>
+    <t>profits</t>
+  </si>
+  <si>
+    <t>story</t>
+  </si>
+  <si>
+    <t>u</t>
+  </si>
+  <si>
+    <t>gas</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>part</t>
+  </si>
+  <si>
+    <t>daily</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>profit</t>
+  </si>
+  <si>
+    <t>amid</t>
+  </si>
+  <si>
+    <t>supply</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>means</t>
+  </si>
+  <si>
+    <t>recipe</t>
+  </si>
+  <si>
+    <t>protection</t>
+  </si>
+  <si>
+    <t>due</t>
+  </si>
+  <si>
+    <t>house</t>
+  </si>
+  <si>
+    <t>month</t>
+  </si>
+  <si>
+    <t>think</t>
+  </si>
+  <si>
+    <t>supermarkets</t>
+  </si>
+  <si>
+    <t>certainly</t>
+  </si>
+  <si>
+    <t>close</t>
+  </si>
+  <si>
+    <t>national</t>
+  </si>
+  <si>
+    <t>simple</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>last</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>place</t>
+  </si>
+  <si>
+    <t>buying</t>
+  </si>
+  <si>
+    <t>sub</t>
+  </si>
+  <si>
+    <t>deliver</t>
+  </si>
+  <si>
+    <t>cure</t>
+  </si>
+  <si>
+    <t>bread</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>friendly</t>
+  </si>
+  <si>
+    <t>volunteers</t>
+  </si>
+  <si>
+    <t>volunteer</t>
+  </si>
+  <si>
+    <t>power</t>
+  </si>
+  <si>
+    <t>produce</t>
+  </si>
+  <si>
+    <t>found</t>
+  </si>
+  <si>
+    <t>tech</t>
+  </si>
+  <si>
+    <t>tests</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>shift</t>
+  </si>
+  <si>
+    <t>rt</t>
+  </si>
+  <si>
+    <t>set</t>
+  </si>
+  <si>
+    <t>live</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>goods</t>
+  </si>
+  <si>
     <t>like</t>
   </si>
   <si>
-    <t>grocery</t>
-  </si>
-  <si>
-    <t>hand</t>
-  </si>
-  <si>
     <t>please</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
-    <t>online</t>
-  </si>
-  <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>supermarket</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>toilet</t>
-  </si>
-  <si>
-    <t>consumer</t>
-  </si>
-  <si>
-    <t>avoid</t>
-  </si>
-  <si>
-    <t>prices</t>
-  </si>
-  <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>great</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
-    <t>amp</t>
-  </si>
-  <si>
-    <t>stock</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>well</t>
-  </si>
-  <si>
-    <t>stay</t>
-  </si>
-  <si>
-    <t>home</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>care</t>
-  </si>
-  <si>
-    <t>stop</t>
-  </si>
-  <si>
-    <t>retail</t>
-  </si>
-  <si>
-    <t>local</t>
-  </si>
-  <si>
-    <t>share</t>
-  </si>
-  <si>
-    <t>us</t>
-  </si>
-  <si>
-    <t>get</t>
-  </si>
-  <si>
-    <t>people</t>
-  </si>
-  <si>
-    <t>time</t>
-  </si>
-  <si>
-    <t>health</t>
-  </si>
-  <si>
-    <t>love</t>
-  </si>
-  <si>
-    <t>today</t>
-  </si>
-  <si>
-    <t>via</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>delivery</t>
-  </si>
-  <si>
-    <t>one</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>go</t>
-  </si>
-  <si>
-    <t>staff</t>
-  </si>
-  <si>
-    <t>shop</t>
-  </si>
-  <si>
-    <t>news</t>
-  </si>
-  <si>
-    <t>see</t>
-  </si>
-  <si>
-    <t>market</t>
-  </si>
-  <si>
-    <t>ia</t>
-  </si>
-  <si>
-    <t>pan</t>
-  </si>
-  <si>
-    <t>data</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>also</t>
-  </si>
-  <si>
-    <t>customers</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>paper</t>
-  </si>
-  <si>
-    <t>protect</t>
-  </si>
-  <si>
-    <t>food</t>
-  </si>
-  <si>
-    <t>going</t>
-  </si>
-  <si>
-    <t>everyone</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>buy</t>
-  </si>
-  <si>
-    <t>line</t>
-  </si>
-  <si>
-    <t>give</t>
-  </si>
-  <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>way</t>
-  </si>
-  <si>
-    <t>stores</t>
-  </si>
-  <si>
-    <t>essential</t>
-  </si>
-  <si>
-    <t>look</t>
-  </si>
-  <si>
-    <t>business</t>
-  </si>
-  <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>shelves</t>
-  </si>
-  <si>
-    <t>di</t>
-  </si>
-  <si>
-    <t>times</t>
-  </si>
-  <si>
-    <t>increased</t>
-  </si>
-  <si>
-    <t>uk</t>
-  </si>
-  <si>
-    <t>e</t>
-  </si>
-  <si>
-    <t>community</t>
-  </si>
-  <si>
-    <t>week</t>
-  </si>
-  <si>
-    <t>made</t>
-  </si>
-  <si>
-    <t>ho</t>
-  </si>
-  <si>
-    <t>want</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>others</t>
-  </si>
-  <si>
-    <t>got</t>
-  </si>
-  <si>
-    <t>every</t>
-  </si>
-  <si>
-    <t>000</t>
-  </si>
-  <si>
-    <t>healthcare</t>
-  </si>
-  <si>
-    <t>face</t>
-  </si>
-  <si>
-    <t>markets</t>
-  </si>
-  <si>
-    <t>services</t>
-  </si>
-  <si>
-    <t>solution</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>lo</t>
-  </si>
-  <si>
-    <t>taking</t>
-  </si>
-  <si>
-    <t>provide</t>
-  </si>
-  <si>
-    <t>much</t>
-  </si>
-  <si>
-    <t>march</t>
-  </si>
-  <si>
-    <t>shops</t>
-  </si>
-  <si>
-    <t>real</t>
-  </si>
-  <si>
-    <t>foods</t>
-  </si>
-  <si>
-    <t>things</t>
-  </si>
-  <si>
-    <t>credit</t>
-  </si>
-  <si>
-    <t>still</t>
-  </si>
-  <si>
-    <t>since</t>
-  </si>
-  <si>
-    <t>advantage</t>
-  </si>
-  <si>
-    <t>rest</t>
-  </si>
-  <si>
-    <t>small</t>
-  </si>
-  <si>
-    <t>ready</t>
-  </si>
-  <si>
-    <t>feel</t>
-  </si>
-  <si>
-    <t>test</t>
-  </si>
-  <si>
-    <t>per</t>
-  </si>
-  <si>
-    <t>least</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>come</t>
-  </si>
-  <si>
-    <t>easy</t>
-  </si>
-  <si>
-    <t>profits</t>
-  </si>
-  <si>
-    <t>story</t>
-  </si>
-  <si>
-    <t>u</t>
-  </si>
-  <si>
-    <t>gas</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>part</t>
-  </si>
-  <si>
-    <t>daily</t>
-  </si>
-  <si>
-    <t>company</t>
-  </si>
-  <si>
-    <t>profit</t>
-  </si>
-  <si>
-    <t>amid</t>
-  </si>
-  <si>
-    <t>supply</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>means</t>
-  </si>
-  <si>
-    <t>recipe</t>
-  </si>
-  <si>
-    <t>protection</t>
-  </si>
-  <si>
-    <t>due</t>
-  </si>
-  <si>
-    <t>house</t>
-  </si>
-  <si>
-    <t>month</t>
-  </si>
-  <si>
-    <t>think</t>
-  </si>
-  <si>
-    <t>supermarkets</t>
-  </si>
-  <si>
-    <t>certainly</t>
-  </si>
-  <si>
-    <t>close</t>
-  </si>
-  <si>
-    <t>national</t>
-  </si>
-  <si>
-    <t>simple</t>
-  </si>
-  <si>
-    <t>april</t>
-  </si>
-  <si>
-    <t>last</t>
-  </si>
-  <si>
-    <t>may</t>
-  </si>
-  <si>
-    <t>place</t>
-  </si>
-  <si>
-    <t>buying</t>
-  </si>
-  <si>
-    <t>sub</t>
-  </si>
-  <si>
-    <t>deliver</t>
-  </si>
-  <si>
-    <t>cure</t>
-  </si>
-  <si>
-    <t>bread</t>
-  </si>
-  <si>
-    <t>quick</t>
-  </si>
-  <si>
-    <t>friendly</t>
-  </si>
-  <si>
-    <t>volunteers</t>
-  </si>
-  <si>
-    <t>volunteer</t>
-  </si>
-  <si>
-    <t>power</t>
-  </si>
-  <si>
-    <t>produce</t>
-  </si>
-  <si>
-    <t>found</t>
-  </si>
-  <si>
-    <t>tech</t>
-  </si>
-  <si>
-    <t>tests</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>shift</t>
-  </si>
-  <si>
-    <t>rt</t>
-  </si>
-  <si>
-    <t>set</t>
-  </si>
-  <si>
-    <t>live</t>
-  </si>
-  <si>
-    <t>kids</t>
-  </si>
-  <si>
-    <t>group</t>
-  </si>
-  <si>
-    <t>goods</t>
   </si>
   <si>
     <t>best</t>
@@ -3763,7 +3763,7 @@
         <v>148</v>
       </c>
       <c r="J1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -3821,7 +3821,7 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.02557610336258672</v>
+        <v>0.02588404405705219</v>
       </c>
       <c r="C3">
         <v>194</v>
@@ -3842,28 +3842,28 @@
         <v>98</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>73</v>
+        <v>330</v>
       </c>
       <c r="K3">
-        <v>0.003988648367112461</v>
+        <v>0.006961658437704051</v>
       </c>
       <c r="L3">
-        <v>644</v>
+        <v>201</v>
       </c>
       <c r="M3">
-        <v>675</v>
+        <v>201</v>
       </c>
       <c r="N3">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O3">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P3" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q3">
-        <v>2432</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3871,7 +3871,7 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.01341400072664183</v>
+        <v>0.01357550760831032</v>
       </c>
       <c r="C4">
         <v>144</v>
@@ -3892,28 +3892,28 @@
         <v>371</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>165</v>
+        <v>331</v>
       </c>
       <c r="K4">
-        <v>0.003628548983655883</v>
+        <v>0.006230567721560877</v>
       </c>
       <c r="L4">
-        <v>210</v>
+        <v>161</v>
       </c>
       <c r="M4">
-        <v>213</v>
+        <v>161</v>
       </c>
       <c r="N4">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O4">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q4">
-        <v>170</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3921,7 +3921,7 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.01054849456353716</v>
+        <v>0.01067550025691469</v>
       </c>
       <c r="C5">
         <v>33</v>
@@ -3942,28 +3942,28 @@
         <v>42</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>332</v>
+        <v>73</v>
       </c>
       <c r="K5">
-        <v>0.003506709346329137</v>
+        <v>0.003988648367112461</v>
       </c>
       <c r="L5">
-        <v>51</v>
+        <v>644</v>
       </c>
       <c r="M5">
-        <v>51</v>
+        <v>675</v>
       </c>
       <c r="N5">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q5">
-        <v>8</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3971,7 +3971,7 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.009181286037409852</v>
+        <v>0.0092918303043908</v>
       </c>
       <c r="C6">
         <v>25</v>
@@ -3992,28 +3992,28 @@
         <v>11</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>333</v>
+        <v>164</v>
       </c>
       <c r="K6">
-        <v>0.003472159643201134</v>
+        <v>0.003628548983655883</v>
       </c>
       <c r="L6">
-        <v>50</v>
+        <v>210</v>
       </c>
       <c r="M6">
-        <v>50</v>
+        <v>213</v>
       </c>
       <c r="N6">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P6" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q6">
-        <v>180</v>
+        <v>170</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4021,7 +4021,7 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.008806380200552218</v>
+        <v>0.008912410536613964</v>
       </c>
       <c r="C7">
         <v>23</v>
@@ -4042,28 +4042,28 @@
         <v>6</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>86</v>
+        <v>332</v>
       </c>
       <c r="K7">
-        <v>0.00333768181831302</v>
+        <v>0.003506709346329137</v>
       </c>
       <c r="L7">
-        <v>422</v>
+        <v>51</v>
       </c>
       <c r="M7">
-        <v>441</v>
+        <v>51</v>
       </c>
       <c r="N7">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O7">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P7" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>1702</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4071,7 +4071,7 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.007345028829927882</v>
+        <v>0.00743346424351264</v>
       </c>
       <c r="C8">
         <v>16</v>
@@ -4092,28 +4092,28 @@
         <v>61</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>87</v>
+        <v>333</v>
       </c>
       <c r="K8">
-        <v>0.003151803352168332</v>
+        <v>0.003472159643201134</v>
       </c>
       <c r="L8">
-        <v>419</v>
+        <v>50</v>
       </c>
       <c r="M8">
-        <v>440</v>
+        <v>50</v>
       </c>
       <c r="N8">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O8">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q8">
-        <v>2761</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4121,7 +4121,7 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.007111793583931009</v>
+        <v>0.007197420804938193</v>
       </c>
       <c r="C9">
         <v>15</v>
@@ -4142,28 +4142,28 @@
         <v>36</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>334</v>
+        <v>86</v>
       </c>
       <c r="K9">
-        <v>0.003105593996371661</v>
+        <v>0.00333768181831302</v>
       </c>
       <c r="L9">
-        <v>40</v>
+        <v>422</v>
       </c>
       <c r="M9">
-        <v>40</v>
+        <v>441</v>
       </c>
       <c r="N9">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P9" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q9">
-        <v>75</v>
+        <v>1702</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4171,7 +4171,7 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.007111793583931009</v>
+        <v>0.007197420804938193</v>
       </c>
       <c r="C10">
         <v>15</v>
@@ -4192,28 +4192,28 @@
         <v>134</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>335</v>
+        <v>87</v>
       </c>
       <c r="K10">
-        <v>0.003026958600110797</v>
+        <v>0.003151803352168332</v>
       </c>
       <c r="L10">
-        <v>38</v>
+        <v>419</v>
       </c>
       <c r="M10">
-        <v>38</v>
+        <v>440</v>
       </c>
       <c r="N10">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q10">
-        <v>25</v>
+        <v>2761</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4221,7 +4221,7 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.006620719516516561</v>
+        <v>0.006700434121078239</v>
       </c>
       <c r="C11">
         <v>13</v>
@@ -4242,16 +4242,16 @@
         <v>21</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="K11">
-        <v>0.002905017179211207</v>
+        <v>0.003105593996371661</v>
       </c>
       <c r="L11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="M11">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -4263,7 +4263,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>130</v>
+        <v>75</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4271,7 +4271,7 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.006360981558246636</v>
+        <v>0.00643756887300522</v>
       </c>
       <c r="C12">
         <v>12</v>
@@ -4292,28 +4292,28 @@
         <v>14</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>182</v>
+        <v>335</v>
       </c>
       <c r="K12">
-        <v>0.002893846797065555</v>
+        <v>0.003026958600110797</v>
       </c>
       <c r="L12">
-        <v>107</v>
+        <v>38</v>
       </c>
       <c r="M12">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="N12">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O12">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P12" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>20</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -4321,7 +4321,7 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.006360981558246636</v>
+        <v>0.00643756887300522</v>
       </c>
       <c r="C13">
         <v>12</v>
@@ -4342,16 +4342,16 @@
         <v>3</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="K13">
-        <v>0.002863216191585041</v>
+        <v>0.002905017179211207</v>
       </c>
       <c r="L13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M13">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -4363,7 +4363,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>109</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4371,7 +4371,7 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.006360981558246636</v>
+        <v>0.00643756887300522</v>
       </c>
       <c r="C14">
         <v>12</v>
@@ -4392,16 +4392,16 @@
         <v>1</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="K14">
-        <v>0.00277274128544075</v>
+        <v>0.002893846797065555</v>
       </c>
       <c r="L14">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="M14">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="N14">
         <v>0.99</v>
@@ -4413,7 +4413,7 @@
         <v>1</v>
       </c>
       <c r="Q14">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -4421,7 +4421,7 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.005806755145543408</v>
+        <v>0.005876669478730116</v>
       </c>
       <c r="C15">
         <v>10</v>
@@ -4442,28 +4442,28 @@
         <v>21</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>103</v>
+        <v>337</v>
       </c>
       <c r="K15">
-        <v>0.002710793049710137</v>
+        <v>0.002863216191585041</v>
       </c>
       <c r="L15">
-        <v>211</v>
+        <v>34</v>
       </c>
       <c r="M15">
-        <v>218</v>
+        <v>34</v>
       </c>
       <c r="N15">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O15">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q15">
-        <v>676</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -4471,7 +4471,7 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.005806755145543408</v>
+        <v>0.005876669478730116</v>
       </c>
       <c r="C16">
         <v>10</v>
@@ -4492,28 +4492,28 @@
         <v>5</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="K16">
-        <v>0.002507126856959669</v>
+        <v>0.00277274128544075</v>
       </c>
       <c r="L16">
-        <v>194</v>
+        <v>101</v>
       </c>
       <c r="M16">
-        <v>201</v>
+        <v>102</v>
       </c>
       <c r="N16">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O16">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P16" t="b">
         <v>1</v>
       </c>
       <c r="Q16">
-        <v>700</v>
+        <v>40</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -4521,7 +4521,7 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.005806755145543408</v>
+        <v>0.005876669478730116</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -4542,28 +4542,28 @@
         <v>9</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>338</v>
+        <v>103</v>
       </c>
       <c r="K17">
-        <v>0.002503809926031688</v>
+        <v>0.002710793049710137</v>
       </c>
       <c r="L17">
-        <v>26</v>
+        <v>211</v>
       </c>
       <c r="M17">
-        <v>26</v>
+        <v>218</v>
       </c>
       <c r="N17">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q17">
-        <v>56</v>
+        <v>676</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -4571,7 +4571,7 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.005806755145543408</v>
+        <v>0.005876669478730116</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -4592,28 +4592,28 @@
         <v>9</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>339</v>
+        <v>163</v>
       </c>
       <c r="K18">
-        <v>0.002455187629069785</v>
+        <v>0.002507126856959669</v>
       </c>
       <c r="L18">
-        <v>25</v>
+        <v>194</v>
       </c>
       <c r="M18">
-        <v>25</v>
+        <v>201</v>
       </c>
       <c r="N18">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P18" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q18">
-        <v>66</v>
+        <v>700</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -4621,7 +4621,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.005806755145543408</v>
+        <v>0.005876669478730116</v>
       </c>
       <c r="C19">
         <v>10</v>
@@ -4642,16 +4642,16 @@
         <v>16</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K19">
-        <v>0.002455187629069785</v>
+        <v>0.002503809926031688</v>
       </c>
       <c r="L19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M19">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -4663,7 +4663,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>22</v>
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -4671,7 +4671,7 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.005508771622445912</v>
+        <v>0.00557509818263448</v>
       </c>
       <c r="C20">
         <v>9</v>
@@ -4692,7 +4692,7 @@
         <v>16</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="K20">
         <v>0.002455187629069785</v>
@@ -4713,7 +4713,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>275</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -4721,7 +4721,7 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.005508771622445912</v>
+        <v>0.00557509818263448</v>
       </c>
       <c r="C21">
         <v>9</v>
@@ -4742,16 +4742,16 @@
         <v>0</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="K21">
-        <v>0.002405582765605836</v>
+        <v>0.002455187629069785</v>
       </c>
       <c r="L21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="M21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -4763,7 +4763,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>74</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -4771,7 +4771,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.005508771622445912</v>
+        <v>0.00557509818263448</v>
       </c>
       <c r="C22">
         <v>9</v>
@@ -4792,16 +4792,16 @@
         <v>7</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="K22">
-        <v>0.002303170149742488</v>
+        <v>0.002455187629069785</v>
       </c>
       <c r="L22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="M22">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -4813,7 +4813,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>14</v>
+        <v>275</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -4821,7 +4821,7 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.005508771622445912</v>
+        <v>0.00557509818263448</v>
       </c>
       <c r="C23">
         <v>9</v>
@@ -4842,16 +4842,16 @@
         <v>1</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="K23">
-        <v>0.002303170149742488</v>
+        <v>0.002405582765605836</v>
       </c>
       <c r="L23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="M23">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -4863,7 +4863,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>29</v>
+        <v>74</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -4871,7 +4871,7 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.005193719693652698</v>
+        <v>0.005256252974295518</v>
       </c>
       <c r="C24">
         <v>8</v>
@@ -4892,28 +4892,28 @@
         <v>11</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>169</v>
+        <v>343</v>
       </c>
       <c r="K24">
-        <v>0.002301425404428089</v>
+        <v>0.002303170149742488</v>
       </c>
       <c r="L24">
-        <v>137</v>
+        <v>22</v>
       </c>
       <c r="M24">
-        <v>141</v>
+        <v>22</v>
       </c>
       <c r="N24">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O24">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P24" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>345</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -4921,7 +4921,7 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.005193719693652698</v>
+        <v>0.005256252974295518</v>
       </c>
       <c r="C25">
         <v>8</v>
@@ -4942,28 +4942,28 @@
         <v>23</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>178</v>
+        <v>344</v>
       </c>
       <c r="K25">
-        <v>0.002293957993334512</v>
+        <v>0.002303170149742488</v>
       </c>
       <c r="L25">
-        <v>102</v>
+        <v>22</v>
       </c>
       <c r="M25">
-        <v>104</v>
+        <v>22</v>
       </c>
       <c r="N25">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O25">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P25" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>16</v>
+        <v>29</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -4971,7 +4971,7 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.005193719693652698</v>
+        <v>0.005256252974295518</v>
       </c>
       <c r="C26">
         <v>8</v>
@@ -4992,28 +4992,28 @@
         <v>72</v>
       </c>
       <c r="J26" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="K26">
+        <v>0.002301425404428089</v>
+      </c>
+      <c r="L26">
+        <v>137</v>
+      </c>
+      <c r="M26">
+        <v>141</v>
+      </c>
+      <c r="N26">
+        <v>0.97</v>
+      </c>
+      <c r="O26">
+        <v>0.03000000000000003</v>
+      </c>
+      <c r="P26" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q26">
         <v>345</v>
-      </c>
-      <c r="K26">
-        <v>0.002195986574446631</v>
-      </c>
-      <c r="L26">
-        <v>20</v>
-      </c>
-      <c r="M26">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>1</v>
-      </c>
-      <c r="O26">
-        <v>0</v>
-      </c>
-      <c r="P26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q26">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -5021,7 +5021,7 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.005193719693652698</v>
+        <v>0.005256252974295518</v>
       </c>
       <c r="C27">
         <v>8</v>
@@ -5042,28 +5042,28 @@
         <v>29</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>167</v>
+        <v>176</v>
       </c>
       <c r="K27">
-        <v>0.002185199801776025</v>
+        <v>0.002293957993334512</v>
       </c>
       <c r="L27">
-        <v>156</v>
+        <v>102</v>
       </c>
       <c r="M27">
-        <v>162</v>
+        <v>104</v>
       </c>
       <c r="N27">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="O27">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P27" t="b">
         <v>1</v>
       </c>
       <c r="Q27">
-        <v>133</v>
+        <v>16</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -5071,7 +5071,7 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.005193719693652698</v>
+        <v>0.005256252974295518</v>
       </c>
       <c r="C28">
         <v>8</v>
@@ -5092,28 +5092,28 @@
         <v>4</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>187</v>
+        <v>345</v>
       </c>
       <c r="K28">
-        <v>0.002141774466505595</v>
+        <v>0.002195986574446631</v>
       </c>
       <c r="L28">
-        <v>72</v>
+        <v>20</v>
       </c>
       <c r="M28">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="N28">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O28">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q28">
-        <v>235</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:17">
@@ -5121,7 +5121,7 @@
         <v>34</v>
       </c>
       <c r="B29">
-        <v>0.005193719693652698</v>
+        <v>0.005256252974295518</v>
       </c>
       <c r="C29">
         <v>8</v>
@@ -5142,28 +5142,28 @@
         <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>346</v>
+        <v>165</v>
       </c>
       <c r="K29">
-        <v>0.002140382952509284</v>
+        <v>0.002185199801776025</v>
       </c>
       <c r="L29">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="M29">
-        <v>19</v>
+        <v>162</v>
       </c>
       <c r="N29">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O29">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q29">
-        <v>97</v>
+        <v>133</v>
       </c>
     </row>
     <row r="30" spans="1:17">
@@ -5171,7 +5171,7 @@
         <v>35</v>
       </c>
       <c r="B30">
-        <v>0.005193719693652698</v>
+        <v>0.005256252974295518</v>
       </c>
       <c r="C30">
         <v>8</v>
@@ -5192,28 +5192,28 @@
         <v>2</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>171</v>
+        <v>185</v>
       </c>
       <c r="K30">
-        <v>0.00210262713500531</v>
+        <v>0.002141774466505595</v>
       </c>
       <c r="L30">
-        <v>124</v>
+        <v>72</v>
       </c>
       <c r="M30">
-        <v>128</v>
+        <v>73</v>
       </c>
       <c r="N30">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="O30">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P30" t="b">
         <v>1</v>
       </c>
       <c r="Q30">
-        <v>32</v>
+        <v>235</v>
       </c>
     </row>
     <row r="31" spans="1:17">
@@ -5221,7 +5221,7 @@
         <v>36</v>
       </c>
       <c r="B31">
-        <v>0.005193719693652698</v>
+        <v>0.005256252974295518</v>
       </c>
       <c r="C31">
         <v>8</v>
@@ -5242,28 +5242,28 @@
         <v>4</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>163</v>
+        <v>346</v>
       </c>
       <c r="K31">
-        <v>0.002084293749946949</v>
+        <v>0.002140382952509284</v>
       </c>
       <c r="L31">
-        <v>201</v>
+        <v>19</v>
       </c>
       <c r="M31">
-        <v>212</v>
+        <v>19</v>
       </c>
       <c r="N31">
-        <v>0.95</v>
+        <v>1</v>
       </c>
       <c r="O31">
-        <v>0.05000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31">
-        <v>128</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:17">
@@ -5271,7 +5271,7 @@
         <v>37</v>
       </c>
       <c r="B32">
-        <v>0.005193719693652698</v>
+        <v>0.005256252974295518</v>
       </c>
       <c r="C32">
         <v>8</v>
@@ -5292,28 +5292,28 @@
         <v>22</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>347</v>
+        <v>169</v>
       </c>
       <c r="K32">
-        <v>0.00208329578592068</v>
+        <v>0.00210262713500531</v>
       </c>
       <c r="L32">
-        <v>18</v>
+        <v>124</v>
       </c>
       <c r="M32">
-        <v>18</v>
+        <v>128</v>
       </c>
       <c r="N32">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O32">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P32" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q32">
-        <v>41</v>
+        <v>32</v>
       </c>
     </row>
     <row r="33" spans="1:17">
@@ -5321,7 +5321,7 @@
         <v>38</v>
       </c>
       <c r="B33">
-        <v>0.004858279914147228</v>
+        <v>0.00491677444200633</v>
       </c>
       <c r="C33">
         <v>7</v>
@@ -5342,16 +5342,16 @@
         <v>20</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="K33">
-        <v>0.002024599585072904</v>
+        <v>0.00208329578592068</v>
       </c>
       <c r="L33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="M33">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>120</v>
+        <v>41</v>
       </c>
     </row>
     <row r="34" spans="1:17">
@@ -5371,7 +5371,7 @@
         <v>39</v>
       </c>
       <c r="B34">
-        <v>0.004858279914147228</v>
+        <v>0.00491677444200633</v>
       </c>
       <c r="C34">
         <v>7</v>
@@ -5392,7 +5392,7 @@
         <v>7</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="K34">
         <v>0.002024599585072904</v>
@@ -5413,7 +5413,7 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="35" spans="1:17">
@@ -5421,7 +5421,7 @@
         <v>40</v>
       </c>
       <c r="B35">
-        <v>0.004858279914147228</v>
+        <v>0.00491677444200633</v>
       </c>
       <c r="C35">
         <v>7</v>
@@ -5442,16 +5442,16 @@
         <v>366</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="K35">
-        <v>0.001964150103255828</v>
+        <v>0.002024599585072904</v>
       </c>
       <c r="L35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="M35">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -5463,7 +5463,7 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>62</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:17">
@@ -5471,7 +5471,7 @@
         <v>41</v>
       </c>
       <c r="B36">
-        <v>0.004858279914147228</v>
+        <v>0.00491677444200633</v>
       </c>
       <c r="C36">
         <v>7</v>
@@ -5492,7 +5492,7 @@
         <v>4</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="K36">
         <v>0.001964150103255828</v>
@@ -5513,7 +5513,7 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>93</v>
+        <v>62</v>
       </c>
     </row>
     <row r="37" spans="1:17">
@@ -5521,7 +5521,7 @@
         <v>42</v>
       </c>
       <c r="B37">
-        <v>0.004858279914147228</v>
+        <v>0.00491677444200633</v>
       </c>
       <c r="C37">
         <v>7</v>
@@ -5542,28 +5542,28 @@
         <v>3</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>189</v>
+        <v>351</v>
       </c>
       <c r="K37">
-        <v>0.001902390136551359</v>
+        <v>0.001964150103255828</v>
       </c>
       <c r="L37">
-        <v>62</v>
+        <v>16</v>
       </c>
       <c r="M37">
-        <v>63</v>
+        <v>16</v>
       </c>
       <c r="N37">
-        <v>0.98</v>
+        <v>1</v>
       </c>
       <c r="O37">
-        <v>0.02000000000000002</v>
+        <v>0</v>
       </c>
       <c r="P37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="38" spans="1:17">
@@ -5571,7 +5571,7 @@
         <v>43</v>
       </c>
       <c r="B38">
-        <v>0.004858279914147228</v>
+        <v>0.00491677444200633</v>
       </c>
       <c r="C38">
         <v>7</v>
@@ -5592,28 +5592,28 @@
         <v>32</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>352</v>
+        <v>187</v>
       </c>
       <c r="K38">
-        <v>0.00190178015984035</v>
+        <v>0.001902390136551359</v>
       </c>
       <c r="L38">
-        <v>15</v>
+        <v>62</v>
       </c>
       <c r="M38">
-        <v>15</v>
+        <v>63</v>
       </c>
       <c r="N38">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P38" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38">
-        <v>35</v>
+        <v>96</v>
       </c>
     </row>
     <row r="39" spans="1:17">
@@ -5621,7 +5621,7 @@
         <v>44</v>
       </c>
       <c r="B39">
-        <v>0.004858279914147228</v>
+        <v>0.00491677444200633</v>
       </c>
       <c r="C39">
         <v>7</v>
@@ -5642,7 +5642,7 @@
         <v>15</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="K39">
         <v>0.00190178015984035</v>
@@ -5663,7 +5663,7 @@
         <v>0</v>
       </c>
       <c r="Q39">
-        <v>63</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:17">
@@ -5671,7 +5671,7 @@
         <v>45</v>
       </c>
       <c r="B40">
-        <v>0.004497893194838769</v>
+        <v>0.004552048604457432</v>
       </c>
       <c r="C40">
         <v>6</v>
@@ -5692,7 +5692,7 @@
         <v>18</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="K40">
         <v>0.00190178015984035</v>
@@ -5713,7 +5713,7 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>98</v>
+        <v>63</v>
       </c>
     </row>
     <row r="41" spans="1:17">
@@ -5721,7 +5721,7 @@
         <v>46</v>
       </c>
       <c r="B41">
-        <v>0.004497893194838769</v>
+        <v>0.004552048604457432</v>
       </c>
       <c r="C41">
         <v>6</v>
@@ -5742,28 +5742,28 @@
         <v>160</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>177</v>
+        <v>354</v>
       </c>
       <c r="K41">
-        <v>0.001892194034859834</v>
+        <v>0.00190178015984035</v>
       </c>
       <c r="L41">
-        <v>97</v>
+        <v>15</v>
       </c>
       <c r="M41">
-        <v>100</v>
+        <v>15</v>
       </c>
       <c r="N41">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O41">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P41" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>98</v>
       </c>
     </row>
     <row r="42" spans="1:17">
@@ -5771,7 +5771,7 @@
         <v>47</v>
       </c>
       <c r="B42">
-        <v>0.004497893194838769</v>
+        <v>0.004552048604457432</v>
       </c>
       <c r="C42">
         <v>6</v>
@@ -5792,28 +5792,28 @@
         <v>26</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>355</v>
+        <v>175</v>
       </c>
       <c r="K42">
-        <v>0.001837294185644992</v>
+        <v>0.001892194034859834</v>
       </c>
       <c r="L42">
-        <v>14</v>
+        <v>97</v>
       </c>
       <c r="M42">
-        <v>14</v>
+        <v>100</v>
       </c>
       <c r="N42">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P42" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42">
-        <v>62</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:17">
@@ -5821,7 +5821,7 @@
         <v>48</v>
       </c>
       <c r="B43">
-        <v>0.004497893194838769</v>
+        <v>0.004552048604457432</v>
       </c>
       <c r="C43">
         <v>6</v>
@@ -5842,7 +5842,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="K43">
         <v>0.001837294185644992</v>
@@ -5863,7 +5863,7 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>110</v>
+        <v>62</v>
       </c>
     </row>
     <row r="44" spans="1:17">
@@ -5871,7 +5871,7 @@
         <v>49</v>
       </c>
       <c r="B44">
-        <v>0.004497893194838769</v>
+        <v>0.004552048604457432</v>
       </c>
       <c r="C44">
         <v>6</v>
@@ -5892,7 +5892,7 @@
         <v>34</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="K44">
         <v>0.001837294185644992</v>
@@ -5913,7 +5913,7 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>45</v>
+        <v>110</v>
       </c>
     </row>
     <row r="45" spans="1:17">
@@ -5921,7 +5921,7 @@
         <v>50</v>
       </c>
       <c r="B45">
-        <v>0.004105995940103621</v>
+        <v>0.004155432839202078</v>
       </c>
       <c r="C45">
         <v>5</v>
@@ -5942,28 +5942,28 @@
         <v>1</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>172</v>
+        <v>357</v>
       </c>
       <c r="K45">
-        <v>0.001787138264724957</v>
+        <v>0.001837294185644992</v>
       </c>
       <c r="L45">
-        <v>116</v>
+        <v>14</v>
       </c>
       <c r="M45">
-        <v>121</v>
+        <v>14</v>
       </c>
       <c r="N45">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O45">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q45">
-        <v>446</v>
+        <v>45</v>
       </c>
     </row>
     <row r="46" spans="1:17">
@@ -5971,7 +5971,7 @@
         <v>51</v>
       </c>
       <c r="B46">
-        <v>0.004105995940103621</v>
+        <v>0.004155432839202078</v>
       </c>
       <c r="C46">
         <v>5</v>
@@ -5992,28 +5992,28 @@
         <v>7</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>358</v>
+        <v>170</v>
       </c>
       <c r="K46">
-        <v>0.001770460977499194</v>
+        <v>0.001787138264724957</v>
       </c>
       <c r="L46">
-        <v>13</v>
+        <v>116</v>
       </c>
       <c r="M46">
-        <v>13</v>
+        <v>121</v>
       </c>
       <c r="N46">
-        <v>1</v>
+        <v>0.96</v>
       </c>
       <c r="O46">
-        <v>0</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q46">
-        <v>100</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47" spans="1:17">
@@ -6021,7 +6021,7 @@
         <v>52</v>
       </c>
       <c r="B47">
-        <v>0.004105995940103621</v>
+        <v>0.004155432839202078</v>
       </c>
       <c r="C47">
         <v>5</v>
@@ -6042,7 +6042,7 @@
         <v>1</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="K47">
         <v>0.001770460977499194</v>
@@ -6063,7 +6063,7 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>68</v>
+        <v>100</v>
       </c>
     </row>
     <row r="48" spans="1:17">
@@ -6071,7 +6071,7 @@
         <v>53</v>
       </c>
       <c r="B48">
-        <v>0.004105995940103621</v>
+        <v>0.004155432839202078</v>
       </c>
       <c r="C48">
         <v>5</v>
@@ -6092,7 +6092,7 @@
         <v>25</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K48">
         <v>0.001770460977499194</v>
@@ -6113,7 +6113,7 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>32</v>
+        <v>68</v>
       </c>
     </row>
     <row r="49" spans="1:17">
@@ -6121,7 +6121,7 @@
         <v>54</v>
       </c>
       <c r="B49">
-        <v>0.004105995940103621</v>
+        <v>0.004155432839202078</v>
       </c>
       <c r="C49">
         <v>5</v>
@@ -6142,28 +6142,28 @@
         <v>3</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>176</v>
+        <v>360</v>
       </c>
       <c r="K49">
-        <v>0.001751452863232633</v>
+        <v>0.001770460977499194</v>
       </c>
       <c r="L49">
-        <v>102</v>
+        <v>13</v>
       </c>
       <c r="M49">
-        <v>106</v>
+        <v>13</v>
       </c>
       <c r="N49">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>310</v>
+        <v>32</v>
       </c>
     </row>
     <row r="50" spans="1:17">
@@ -6171,7 +6171,7 @@
         <v>55</v>
       </c>
       <c r="B50">
-        <v>0.004105995940103621</v>
+        <v>0.004155432839202078</v>
       </c>
       <c r="C50">
         <v>5</v>
@@ -6192,28 +6192,28 @@
         <v>33</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="K50">
-        <v>0.001738758179932925</v>
+        <v>0.001751452863232633</v>
       </c>
       <c r="L50">
-        <v>161</v>
+        <v>102</v>
       </c>
       <c r="M50">
-        <v>171</v>
+        <v>106</v>
       </c>
       <c r="N50">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="O50">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P50" t="b">
         <v>1</v>
       </c>
       <c r="Q50">
-        <v>68</v>
+        <v>310</v>
       </c>
     </row>
     <row r="51" spans="1:17">
@@ -6221,7 +6221,7 @@
         <v>56</v>
       </c>
       <c r="B51">
-        <v>0.004105995940103621</v>
+        <v>0.004155432839202078</v>
       </c>
       <c r="C51">
         <v>5</v>
@@ -6271,7 +6271,7 @@
         <v>57</v>
       </c>
       <c r="B52">
-        <v>0.004105995940103621</v>
+        <v>0.004155432839202078</v>
       </c>
       <c r="C52">
         <v>5</v>
@@ -6321,7 +6321,7 @@
         <v>58</v>
       </c>
       <c r="B53">
-        <v>0.004105995940103621</v>
+        <v>0.004155432839202078</v>
       </c>
       <c r="C53">
         <v>5</v>
@@ -6371,7 +6371,7 @@
         <v>59</v>
       </c>
       <c r="B54">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C54">
         <v>4</v>
@@ -6421,7 +6421,7 @@
         <v>60</v>
       </c>
       <c r="B55">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C55">
         <v>4</v>
@@ -6471,7 +6471,7 @@
         <v>61</v>
       </c>
       <c r="B56">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C56">
         <v>4</v>
@@ -6521,7 +6521,7 @@
         <v>62</v>
       </c>
       <c r="B57">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C57">
         <v>4</v>
@@ -6542,7 +6542,7 @@
         <v>3</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="K57">
         <v>0.001663917473107171</v>
@@ -6571,7 +6571,7 @@
         <v>63</v>
       </c>
       <c r="B58">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -6621,7 +6621,7 @@
         <v>64</v>
       </c>
       <c r="B59">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C59">
         <v>4</v>
@@ -6671,7 +6671,7 @@
         <v>65</v>
       </c>
       <c r="B60">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C60">
         <v>4</v>
@@ -6721,7 +6721,7 @@
         <v>66</v>
       </c>
       <c r="B61">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C61">
         <v>4</v>
@@ -6771,7 +6771,7 @@
         <v>67</v>
       </c>
       <c r="B62">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C62">
         <v>4</v>
@@ -6821,7 +6821,7 @@
         <v>68</v>
       </c>
       <c r="B63">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C63">
         <v>4</v>
@@ -6871,7 +6871,7 @@
         <v>69</v>
       </c>
       <c r="B64">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C64">
         <v>4</v>
@@ -6921,7 +6921,7 @@
         <v>70</v>
       </c>
       <c r="B65">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C65">
         <v>4</v>
@@ -6942,7 +6942,7 @@
         <v>27</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="K65">
         <v>0.00162207325284392</v>
@@ -6971,7 +6971,7 @@
         <v>71</v>
       </c>
       <c r="B66">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C66">
         <v>4</v>
@@ -6992,7 +6992,7 @@
         <v>15</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="K66">
         <v>0.001589442618126974</v>
@@ -7021,7 +7021,7 @@
         <v>72</v>
       </c>
       <c r="B67">
-        <v>0.003672514414963941</v>
+        <v>0.00371673212175632</v>
       </c>
       <c r="C67">
         <v>4</v>
@@ -7071,7 +7071,7 @@
         <v>73</v>
       </c>
       <c r="B68">
-        <v>0.003272521399556293</v>
+        <v>0.00331192312147405</v>
       </c>
       <c r="C68">
         <v>31</v>
@@ -7121,7 +7121,7 @@
         <v>74</v>
       </c>
       <c r="B69">
-        <v>0.003180490779123318</v>
+        <v>0.00321878443650261</v>
       </c>
       <c r="C69">
         <v>3</v>
@@ -7171,7 +7171,7 @@
         <v>75</v>
       </c>
       <c r="B70">
-        <v>0.003180490779123318</v>
+        <v>0.00321878443650261</v>
       </c>
       <c r="C70">
         <v>3</v>
@@ -7221,7 +7221,7 @@
         <v>76</v>
       </c>
       <c r="B71">
-        <v>0.003180490779123318</v>
+        <v>0.00321878443650261</v>
       </c>
       <c r="C71">
         <v>3</v>
@@ -7271,7 +7271,7 @@
         <v>77</v>
       </c>
       <c r="B72">
-        <v>0.003180490779123318</v>
+        <v>0.00321878443650261</v>
       </c>
       <c r="C72">
         <v>3</v>
@@ -7321,7 +7321,7 @@
         <v>78</v>
       </c>
       <c r="B73">
-        <v>0.003180490779123318</v>
+        <v>0.00321878443650261</v>
       </c>
       <c r="C73">
         <v>3</v>
@@ -7342,7 +7342,7 @@
         <v>25</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="K73">
         <v>0.001508689044290516</v>
@@ -7371,7 +7371,7 @@
         <v>79</v>
       </c>
       <c r="B74">
-        <v>0.003180490779123318</v>
+        <v>0.00321878443650261</v>
       </c>
       <c r="C74">
         <v>3</v>
@@ -7392,7 +7392,7 @@
         <v>6</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="K74">
         <v>0.001500345081549635</v>
@@ -7421,7 +7421,7 @@
         <v>80</v>
       </c>
       <c r="B75">
-        <v>0.003180490779123318</v>
+        <v>0.00321878443650261</v>
       </c>
       <c r="C75">
         <v>3</v>
@@ -7471,7 +7471,7 @@
         <v>81</v>
       </c>
       <c r="B76">
-        <v>0.003180490779123318</v>
+        <v>0.00321878443650261</v>
       </c>
       <c r="C76">
         <v>3</v>
@@ -7521,7 +7521,7 @@
         <v>82</v>
       </c>
       <c r="B77">
-        <v>0.003180490779123318</v>
+        <v>0.00321878443650261</v>
       </c>
       <c r="C77">
         <v>3</v>
@@ -7571,7 +7571,7 @@
         <v>83</v>
       </c>
       <c r="B78">
-        <v>0.003180490779123318</v>
+        <v>0.00321878443650261</v>
       </c>
       <c r="C78">
         <v>3</v>
@@ -7621,7 +7621,7 @@
         <v>84</v>
       </c>
       <c r="B79">
-        <v>0.003180490779123318</v>
+        <v>0.00321878443650261</v>
       </c>
       <c r="C79">
         <v>3</v>
@@ -7671,7 +7671,7 @@
         <v>85</v>
       </c>
       <c r="B80">
-        <v>0.003180490779123318</v>
+        <v>0.00321878443650261</v>
       </c>
       <c r="C80">
         <v>3</v>
@@ -7721,7 +7721,7 @@
         <v>86</v>
       </c>
       <c r="B81">
-        <v>0.002648404630816918</v>
+        <v>0.002680291879225224</v>
       </c>
       <c r="C81">
         <v>19</v>
@@ -7771,7 +7771,7 @@
         <v>87</v>
       </c>
       <c r="B82">
-        <v>0.002638642660192587</v>
+        <v>0.002670412372791361</v>
       </c>
       <c r="C82">
         <v>21</v>
@@ -7821,7 +7821,7 @@
         <v>88</v>
       </c>
       <c r="B83">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C83">
         <v>2</v>
@@ -7871,7 +7871,7 @@
         <v>89</v>
       </c>
       <c r="B84">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C84">
         <v>2</v>
@@ -7921,7 +7921,7 @@
         <v>90</v>
       </c>
       <c r="B85">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C85">
         <v>2</v>
@@ -7971,7 +7971,7 @@
         <v>91</v>
       </c>
       <c r="B86">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C86">
         <v>2</v>
@@ -8021,7 +8021,7 @@
         <v>92</v>
       </c>
       <c r="B87">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C87">
         <v>2</v>
@@ -8071,7 +8071,7 @@
         <v>93</v>
       </c>
       <c r="B88">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C88">
         <v>2</v>
@@ -8121,7 +8121,7 @@
         <v>94</v>
       </c>
       <c r="B89">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C89">
         <v>2</v>
@@ -8171,7 +8171,7 @@
         <v>95</v>
       </c>
       <c r="B90">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C90">
         <v>2</v>
@@ -8221,7 +8221,7 @@
         <v>96</v>
       </c>
       <c r="B91">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C91">
         <v>2</v>
@@ -8271,7 +8271,7 @@
         <v>97</v>
       </c>
       <c r="B92">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C92">
         <v>2</v>
@@ -8321,7 +8321,7 @@
         <v>98</v>
       </c>
       <c r="B93">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C93">
         <v>2</v>
@@ -8371,7 +8371,7 @@
         <v>99</v>
       </c>
       <c r="B94">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C94">
         <v>2</v>
@@ -8421,7 +8421,7 @@
         <v>100</v>
       </c>
       <c r="B95">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C95">
         <v>2</v>
@@ -8471,7 +8471,7 @@
         <v>101</v>
       </c>
       <c r="B96">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C96">
         <v>2</v>
@@ -8521,7 +8521,7 @@
         <v>102</v>
       </c>
       <c r="B97">
-        <v>0.002596859846826349</v>
+        <v>0.002628126487147759</v>
       </c>
       <c r="C97">
         <v>2</v>
@@ -8571,7 +8571,7 @@
         <v>103</v>
       </c>
       <c r="B98">
-        <v>0.001846388074518888</v>
+        <v>0.001868618905301024</v>
       </c>
       <c r="C98">
         <v>7</v>
@@ -8592,7 +8592,7 @@
         <v>676</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="K98">
         <v>0.001343830848508397</v>
@@ -8621,7 +8621,7 @@
         <v>104</v>
       </c>
       <c r="B99">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C99">
         <v>1</v>
@@ -8642,7 +8642,7 @@
         <v>40</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="K99">
         <v>0.001321217390250559</v>
@@ -8671,7 +8671,7 @@
         <v>105</v>
       </c>
       <c r="B100">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C100">
         <v>1</v>
@@ -8692,7 +8692,7 @@
         <v>11</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="K100">
         <v>0.001319657807212468</v>
@@ -8721,7 +8721,7 @@
         <v>106</v>
       </c>
       <c r="B101">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C101">
         <v>1</v>
@@ -8771,7 +8771,7 @@
         <v>107</v>
       </c>
       <c r="B102">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C102">
         <v>1</v>
@@ -8821,7 +8821,7 @@
         <v>108</v>
       </c>
       <c r="B103">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C103">
         <v>1</v>
@@ -8871,7 +8871,7 @@
         <v>109</v>
       </c>
       <c r="B104">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C104">
         <v>1</v>
@@ -8921,7 +8921,7 @@
         <v>110</v>
       </c>
       <c r="B105">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C105">
         <v>1</v>
@@ -8971,7 +8971,7 @@
         <v>111</v>
       </c>
       <c r="B106">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C106">
         <v>1</v>
@@ -9021,7 +9021,7 @@
         <v>112</v>
       </c>
       <c r="B107">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C107">
         <v>1</v>
@@ -9071,7 +9071,7 @@
         <v>113</v>
       </c>
       <c r="B108">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C108">
         <v>1</v>
@@ -9121,7 +9121,7 @@
         <v>114</v>
       </c>
       <c r="B109">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C109">
         <v>1</v>
@@ -9171,7 +9171,7 @@
         <v>115</v>
       </c>
       <c r="B110">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C110">
         <v>1</v>
@@ -9192,7 +9192,7 @@
         <v>89</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="K110">
         <v>0.001238464196520389</v>
@@ -9221,7 +9221,7 @@
         <v>116</v>
       </c>
       <c r="B111">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C111">
         <v>1</v>
@@ -9271,7 +9271,7 @@
         <v>117</v>
       </c>
       <c r="B112">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C112">
         <v>1</v>
@@ -9321,7 +9321,7 @@
         <v>118</v>
       </c>
       <c r="B113">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C113">
         <v>1</v>
@@ -9371,7 +9371,7 @@
         <v>119</v>
       </c>
       <c r="B114">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C114">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>120</v>
       </c>
       <c r="B115">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C115">
         <v>1</v>
@@ -9471,7 +9471,7 @@
         <v>121</v>
       </c>
       <c r="B116">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C116">
         <v>1</v>
@@ -9521,7 +9521,7 @@
         <v>122</v>
       </c>
       <c r="B117">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C117">
         <v>1</v>
@@ -9571,7 +9571,7 @@
         <v>123</v>
       </c>
       <c r="B118">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C118">
         <v>1</v>
@@ -9621,7 +9621,7 @@
         <v>124</v>
       </c>
       <c r="B119">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C119">
         <v>1</v>
@@ -9671,7 +9671,7 @@
         <v>125</v>
       </c>
       <c r="B120">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C120">
         <v>1</v>
@@ -9721,7 +9721,7 @@
         <v>126</v>
       </c>
       <c r="B121">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C121">
         <v>1</v>
@@ -9771,7 +9771,7 @@
         <v>127</v>
       </c>
       <c r="B122">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C122">
         <v>1</v>
@@ -9821,7 +9821,7 @@
         <v>128</v>
       </c>
       <c r="B123">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C123">
         <v>1</v>
@@ -9871,7 +9871,7 @@
         <v>129</v>
       </c>
       <c r="B124">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C124">
         <v>1</v>
@@ -9921,7 +9921,7 @@
         <v>130</v>
       </c>
       <c r="B125">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C125">
         <v>1</v>
@@ -9971,7 +9971,7 @@
         <v>131</v>
       </c>
       <c r="B126">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C126">
         <v>1</v>
@@ -10021,7 +10021,7 @@
         <v>132</v>
       </c>
       <c r="B127">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C127">
         <v>1</v>
@@ -10071,7 +10071,7 @@
         <v>133</v>
       </c>
       <c r="B128">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C128">
         <v>1</v>
@@ -10121,7 +10121,7 @@
         <v>134</v>
       </c>
       <c r="B129">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C129">
         <v>1</v>
@@ -10171,7 +10171,7 @@
         <v>135</v>
       </c>
       <c r="B130">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C130">
         <v>1</v>
@@ -10221,7 +10221,7 @@
         <v>136</v>
       </c>
       <c r="B131">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C131">
         <v>1</v>
@@ -10271,7 +10271,7 @@
         <v>137</v>
       </c>
       <c r="B132">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C132">
         <v>1</v>
@@ -10321,7 +10321,7 @@
         <v>138</v>
       </c>
       <c r="B133">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C133">
         <v>1</v>
@@ -10371,7 +10371,7 @@
         <v>139</v>
       </c>
       <c r="B134">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C134">
         <v>1</v>
@@ -10421,7 +10421,7 @@
         <v>140</v>
       </c>
       <c r="B135">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C135">
         <v>1</v>
@@ -10471,7 +10471,7 @@
         <v>141</v>
       </c>
       <c r="B136">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C136">
         <v>1</v>
@@ -10521,7 +10521,7 @@
         <v>142</v>
       </c>
       <c r="B137">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C137">
         <v>1</v>
@@ -10542,7 +10542,7 @@
         <v>18</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="K137">
         <v>0.001168223935619139</v>
@@ -10571,7 +10571,7 @@
         <v>143</v>
       </c>
       <c r="B138">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C138">
         <v>1</v>
@@ -10592,7 +10592,7 @@
         <v>15</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="K138">
         <v>0.001143172371830258</v>
@@ -10621,7 +10621,7 @@
         <v>144</v>
       </c>
       <c r="B139">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C139">
         <v>1</v>
@@ -10642,7 +10642,7 @@
         <v>13</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="K139">
         <v>0.001143172371830258</v>
@@ -10671,7 +10671,7 @@
         <v>145</v>
       </c>
       <c r="B140">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C140">
         <v>1</v>
@@ -10692,7 +10692,7 @@
         <v>5</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="K140">
         <v>0.001112838098465506</v>
@@ -10721,7 +10721,7 @@
         <v>146</v>
       </c>
       <c r="B141">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C141">
         <v>1</v>
@@ -10771,7 +10771,7 @@
         <v>147</v>
       </c>
       <c r="B142">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C142">
         <v>1</v>
@@ -10821,7 +10821,7 @@
         <v>148</v>
       </c>
       <c r="B143">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C143">
         <v>1</v>
@@ -10871,7 +10871,7 @@
         <v>149</v>
       </c>
       <c r="B144">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C144">
         <v>1</v>
@@ -10921,7 +10921,7 @@
         <v>150</v>
       </c>
       <c r="B145">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C145">
         <v>1</v>
@@ -10971,7 +10971,7 @@
         <v>151</v>
       </c>
       <c r="B146">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C146">
         <v>1</v>
@@ -11021,7 +11021,7 @@
         <v>152</v>
       </c>
       <c r="B147">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C147">
         <v>1</v>
@@ -11071,7 +11071,7 @@
         <v>153</v>
       </c>
       <c r="B148">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C148">
         <v>1</v>
@@ -11121,7 +11121,7 @@
         <v>154</v>
       </c>
       <c r="B149">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C149">
         <v>1</v>
@@ -11171,7 +11171,7 @@
         <v>155</v>
       </c>
       <c r="B150">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C150">
         <v>1</v>
@@ -11221,7 +11221,7 @@
         <v>156</v>
       </c>
       <c r="B151">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C151">
         <v>1</v>
@@ -11271,7 +11271,7 @@
         <v>157</v>
       </c>
       <c r="B152">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C152">
         <v>1</v>
@@ -11321,7 +11321,7 @@
         <v>158</v>
       </c>
       <c r="B153">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C153">
         <v>1</v>
@@ -11371,7 +11371,7 @@
         <v>159</v>
       </c>
       <c r="B154">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C154">
         <v>1</v>
@@ -11421,7 +11421,7 @@
         <v>160</v>
       </c>
       <c r="B155">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C155">
         <v>1</v>
@@ -11471,7 +11471,7 @@
         <v>161</v>
       </c>
       <c r="B156">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C156">
         <v>1</v>
@@ -11521,7 +11521,7 @@
         <v>162</v>
       </c>
       <c r="B157">
-        <v>0.00183625720748197</v>
+        <v>0.00185836606087816</v>
       </c>
       <c r="C157">
         <v>1</v>
@@ -11571,25 +11571,25 @@
         <v>163</v>
       </c>
       <c r="B158">
-        <v>0.001823375313927262</v>
+        <v>0.001802357951225025</v>
       </c>
       <c r="C158">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="D158">
-        <v>212</v>
+        <v>201</v>
       </c>
       <c r="E158">
-        <v>0.95</v>
+        <v>0.97</v>
       </c>
       <c r="F158">
-        <v>0.05000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G158" t="b">
         <v>1</v>
       </c>
       <c r="H158">
-        <v>128</v>
+        <v>700</v>
       </c>
       <c r="J158" s="1" t="s">
         <v>455</v>
@@ -11621,25 +11621,25 @@
         <v>164</v>
       </c>
       <c r="B159">
-        <v>0.001780915422462817</v>
+        <v>0.001641347555894399</v>
       </c>
       <c r="C159">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D159">
-        <v>201</v>
+        <v>213</v>
       </c>
       <c r="E159">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F159">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G159" t="b">
         <v>1</v>
       </c>
       <c r="H159">
-        <v>700</v>
+        <v>170</v>
       </c>
       <c r="J159" s="1" t="s">
         <v>456</v>
@@ -11671,25 +11671,25 @@
         <v>165</v>
       </c>
       <c r="B160">
-        <v>0.001621820556747463</v>
+        <v>0.001621888748677664</v>
       </c>
       <c r="C160">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D160">
-        <v>213</v>
+        <v>162</v>
       </c>
       <c r="E160">
-        <v>0.99</v>
+        <v>0.96</v>
       </c>
       <c r="F160">
-        <v>0.01000000000000001</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G160" t="b">
         <v>1</v>
       </c>
       <c r="H160">
-        <v>170</v>
+        <v>133</v>
       </c>
       <c r="J160" s="1" t="s">
         <v>457</v>
@@ -11721,13 +11721,13 @@
         <v>166</v>
       </c>
       <c r="B161">
-        <v>0.001620485236560726</v>
+        <v>0.001525171471469158</v>
       </c>
       <c r="C161">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D161">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="E161">
         <v>0.9399999999999999</v>
@@ -11739,7 +11739,7 @@
         <v>1</v>
       </c>
       <c r="H161">
-        <v>68</v>
+        <v>269</v>
       </c>
       <c r="J161" s="1" t="s">
         <v>458</v>
@@ -11771,25 +11771,25 @@
         <v>167</v>
       </c>
       <c r="B162">
-        <v>0.001602593249623781</v>
+        <v>0.001488275037295412</v>
       </c>
       <c r="C162">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D162">
-        <v>162</v>
+        <v>141</v>
       </c>
       <c r="E162">
-        <v>0.96</v>
+        <v>0.97</v>
       </c>
       <c r="F162">
-        <v>0.04000000000000004</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G162" t="b">
         <v>1</v>
       </c>
       <c r="H162">
-        <v>133</v>
+        <v>345</v>
       </c>
       <c r="J162" s="1" t="s">
         <v>459</v>
@@ -11821,25 +11821,25 @@
         <v>168</v>
       </c>
       <c r="B163">
-        <v>0.001507026611219812</v>
+        <v>0.001472625783746831</v>
       </c>
       <c r="C163">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D163">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E163">
-        <v>0.9399999999999999</v>
+        <v>0.95</v>
       </c>
       <c r="F163">
-        <v>0.06000000000000005</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G163" t="b">
         <v>1</v>
       </c>
       <c r="H163">
-        <v>269</v>
+        <v>732</v>
       </c>
       <c r="J163" s="1" t="s">
         <v>460</v>
@@ -11871,13 +11871,13 @@
         <v>169</v>
       </c>
       <c r="B164">
-        <v>0.001470569131389433</v>
+        <v>0.001429216431129209</v>
       </c>
       <c r="C164">
         <v>4</v>
       </c>
       <c r="D164">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="E164">
         <v>0.97</v>
@@ -11889,7 +11889,7 @@
         <v>1</v>
       </c>
       <c r="H164">
-        <v>345</v>
+        <v>32</v>
       </c>
       <c r="J164" s="1" t="s">
         <v>461</v>
@@ -11921,25 +11921,25 @@
         <v>170</v>
       </c>
       <c r="B165">
-        <v>0.00145510605593555</v>
+        <v>0.001404205739441981</v>
       </c>
       <c r="C165">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D165">
-        <v>135</v>
+        <v>121</v>
       </c>
       <c r="E165">
-        <v>0.95</v>
+        <v>0.96</v>
       </c>
       <c r="F165">
-        <v>0.05000000000000004</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G165" t="b">
         <v>1</v>
       </c>
       <c r="H165">
-        <v>732</v>
+        <v>446</v>
       </c>
       <c r="J165" s="1" t="s">
         <v>462</v>
@@ -11971,25 +11971,25 @@
         <v>171</v>
       </c>
       <c r="B166">
-        <v>0.001412213141404724</v>
+        <v>0.001394850835413135</v>
       </c>
       <c r="C166">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="D166">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E166">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F166">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G166" t="b">
         <v>1</v>
       </c>
       <c r="H166">
-        <v>32</v>
+        <v>527</v>
       </c>
       <c r="J166" s="1" t="s">
         <v>463</v>
@@ -12021,25 +12021,25 @@
         <v>172</v>
       </c>
       <c r="B167">
-        <v>0.001387500000198799</v>
+        <v>0.001350434963447231</v>
       </c>
       <c r="C167">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="D167">
-        <v>121</v>
+        <v>12</v>
       </c>
       <c r="E167">
-        <v>0.96</v>
+        <v>0.08</v>
       </c>
       <c r="F167">
-        <v>0.04000000000000004</v>
+        <v>0.92</v>
       </c>
       <c r="G167" t="b">
         <v>1</v>
       </c>
       <c r="H167">
-        <v>446</v>
+        <v>43</v>
       </c>
       <c r="J167" s="1" t="s">
         <v>464</v>
@@ -12071,25 +12071,25 @@
         <v>173</v>
       </c>
       <c r="B168">
-        <v>0.001378256390820702</v>
+        <v>0.001342376584604809</v>
       </c>
       <c r="C168">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D168">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E168">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F168">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G168" t="b">
         <v>1</v>
       </c>
       <c r="H168">
-        <v>527</v>
+        <v>1042</v>
       </c>
       <c r="J168" s="1" t="s">
         <v>465</v>
@@ -12121,28 +12121,28 @@
         <v>174</v>
       </c>
       <c r="B169">
-        <v>0.001334368931433154</v>
+        <v>0.001312637919555831</v>
       </c>
       <c r="C169">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D169">
-        <v>12</v>
+        <v>106</v>
       </c>
       <c r="E169">
-        <v>0.08</v>
+        <v>0.96</v>
       </c>
       <c r="F169">
-        <v>0.92</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G169" t="b">
         <v>1</v>
       </c>
       <c r="H169">
-        <v>43</v>
+        <v>310</v>
       </c>
       <c r="J169" s="1" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="K169">
         <v>0.001096808708207479</v>
@@ -12171,28 +12171,28 @@
         <v>175</v>
       </c>
       <c r="B170">
-        <v>0.001326406422570381</v>
+        <v>0.001259380637314751</v>
       </c>
       <c r="C170">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="D170">
-        <v>119</v>
+        <v>100</v>
       </c>
       <c r="E170">
-        <v>0.93</v>
+        <v>0.97</v>
       </c>
       <c r="F170">
-        <v>0.06999999999999995</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G170" t="b">
         <v>1</v>
       </c>
       <c r="H170">
-        <v>1042</v>
+        <v>12</v>
       </c>
       <c r="J170" s="1" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="K170">
         <v>0.001071854600395901</v>
@@ -12221,28 +12221,28 @@
         <v>176</v>
       </c>
       <c r="B171">
-        <v>0.001297021556377079</v>
+        <v>0.001215673515786417</v>
       </c>
       <c r="C171">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D171">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E171">
-        <v>0.96</v>
+        <v>0.98</v>
       </c>
       <c r="F171">
-        <v>0.04000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G171" t="b">
         <v>1</v>
       </c>
       <c r="H171">
-        <v>310</v>
+        <v>16</v>
       </c>
       <c r="J171" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="K171">
         <v>0.001051313567502655</v>
@@ -12271,28 +12271,28 @@
         <v>177</v>
       </c>
       <c r="B172">
-        <v>0.001244397872365183</v>
+        <v>0.001151711977148482</v>
       </c>
       <c r="C172">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D172">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="E172">
-        <v>0.97</v>
+        <v>0.95</v>
       </c>
       <c r="F172">
-        <v>0.03000000000000003</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G172" t="b">
         <v>1</v>
       </c>
       <c r="H172">
-        <v>12</v>
+        <v>133</v>
       </c>
       <c r="J172" s="1" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="K172">
         <v>0.00103702653380275</v>
@@ -12321,28 +12321,28 @@
         <v>178</v>
       </c>
       <c r="B173">
-        <v>0.001201210731459925</v>
+        <v>0.001077274428339876</v>
       </c>
       <c r="C173">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D173">
-        <v>104</v>
+        <v>84</v>
       </c>
       <c r="E173">
-        <v>0.98</v>
+        <v>0.92</v>
       </c>
       <c r="F173">
-        <v>0.02000000000000002</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G173" t="b">
         <v>1</v>
       </c>
       <c r="H173">
-        <v>16</v>
+        <v>265</v>
       </c>
       <c r="J173" s="1" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="K173">
         <v>0.0009996654172157802</v>
@@ -12371,28 +12371,28 @@
         <v>179</v>
       </c>
       <c r="B174">
-        <v>0.001138010138854374</v>
+        <v>0.001076485753597252</v>
       </c>
       <c r="C174">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D174">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="E174">
-        <v>0.95</v>
+        <v>0.93</v>
       </c>
       <c r="F174">
-        <v>0.05000000000000004</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G174" t="b">
         <v>1</v>
       </c>
       <c r="H174">
-        <v>133</v>
+        <v>251</v>
       </c>
       <c r="J174" s="1" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="K174">
         <v>0.0009996654172157802</v>
@@ -12421,28 +12421,28 @@
         <v>180</v>
       </c>
       <c r="B175">
-        <v>0.001064458168451674</v>
+        <v>0.001058766591816022</v>
       </c>
       <c r="C175">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D175">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="E175">
-        <v>0.92</v>
+        <v>0.99</v>
       </c>
       <c r="F175">
-        <v>0.07999999999999996</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G175" t="b">
         <v>1</v>
       </c>
       <c r="H175">
-        <v>265</v>
+        <v>20</v>
       </c>
       <c r="J175" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="K175">
         <v>0.0009885917212525341</v>
@@ -12471,25 +12471,25 @@
         <v>181</v>
       </c>
       <c r="B176">
-        <v>0.001063678876518297</v>
+        <v>0.001048801163445153</v>
       </c>
       <c r="C176">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D176">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E176">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F176">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G176" t="b">
         <v>1</v>
       </c>
       <c r="H176">
-        <v>251</v>
+        <v>29</v>
       </c>
       <c r="J176" s="1" t="s">
         <v>466</v>
@@ -12521,13 +12521,13 @@
         <v>182</v>
       </c>
       <c r="B177">
-        <v>0.00104617051838785</v>
+        <v>0.001044155654497611</v>
       </c>
       <c r="C177">
         <v>1</v>
       </c>
       <c r="D177">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E177">
         <v>0.99</v>
@@ -12539,7 +12539,7 @@
         <v>1</v>
       </c>
       <c r="H177">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="J177" s="1" t="s">
         <v>467</v>
@@ -12571,25 +12571,25 @@
         <v>183</v>
       </c>
       <c r="B178">
-        <v>0.001036323648033898</v>
+        <v>0.001017328104279228</v>
       </c>
       <c r="C178">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D178">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="E178">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F178">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G178" t="b">
         <v>1</v>
       </c>
       <c r="H178">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="J178" s="1" t="s">
         <v>468</v>
@@ -12621,25 +12621,25 @@
         <v>184</v>
       </c>
       <c r="B179">
-        <v>0.001031733406387257</v>
+        <v>0.001005012652536498</v>
       </c>
       <c r="C179">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D179">
-        <v>102</v>
+        <v>65</v>
       </c>
       <c r="E179">
-        <v>0.99</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F179">
-        <v>0.01000000000000001</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G179" t="b">
         <v>1</v>
       </c>
       <c r="H179">
-        <v>40</v>
+        <v>29</v>
       </c>
       <c r="J179" s="1" t="s">
         <v>469</v>
@@ -12671,25 +12671,25 @@
         <v>185</v>
       </c>
       <c r="B180">
-        <v>0.001005225021691342</v>
+        <v>0.0009552654513843885</v>
       </c>
       <c r="C180">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D180">
-        <v>65</v>
+        <v>73</v>
       </c>
       <c r="E180">
-        <v>0.97</v>
+        <v>0.99</v>
       </c>
       <c r="F180">
-        <v>0.03000000000000003</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="G180" t="b">
         <v>1</v>
       </c>
       <c r="H180">
-        <v>17</v>
+        <v>235</v>
       </c>
       <c r="J180" s="1" t="s">
         <v>470</v>
@@ -12721,25 +12721,25 @@
         <v>186</v>
       </c>
       <c r="B181">
-        <v>0.0009930560860321863</v>
+        <v>0.0009281751741605303</v>
       </c>
       <c r="C181">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D181">
-        <v>65</v>
+        <v>53</v>
       </c>
       <c r="E181">
-        <v>0.9399999999999999</v>
+        <v>0.96</v>
       </c>
       <c r="F181">
-        <v>0.06000000000000005</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G181" t="b">
         <v>1</v>
       </c>
       <c r="H181">
-        <v>29</v>
+        <v>162</v>
       </c>
       <c r="J181" s="1" t="s">
         <v>471</v>
@@ -12771,25 +12771,25 @@
         <v>187</v>
       </c>
       <c r="B182">
-        <v>0.0009439007239156128</v>
+        <v>0.0009143665360655185</v>
       </c>
       <c r="C182">
         <v>1</v>
       </c>
       <c r="D182">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E182">
-        <v>0.99</v>
+        <v>0.98</v>
       </c>
       <c r="F182">
-        <v>0.01000000000000001</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G182" t="b">
         <v>1</v>
       </c>
       <c r="H182">
-        <v>235</v>
+        <v>96</v>
       </c>
       <c r="J182" s="1" t="s">
         <v>472</v>
@@ -12821,13 +12821,13 @@
         <v>188</v>
       </c>
       <c r="B183">
-        <v>0.0009171327378593632</v>
+        <v>0.000902478910516042</v>
       </c>
       <c r="C183">
         <v>2</v>
       </c>
       <c r="D183">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="E183">
         <v>0.96</v>
@@ -12839,7 +12839,7 @@
         <v>1</v>
       </c>
       <c r="H183">
-        <v>162</v>
+        <v>39</v>
       </c>
       <c r="J183" s="1" t="s">
         <v>473</v>
@@ -12871,25 +12871,25 @@
         <v>189</v>
       </c>
       <c r="B184">
-        <v>0.000903488380183409</v>
+        <v>0.000901144583472515</v>
       </c>
       <c r="C184">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="D184">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="E184">
-        <v>0.98</v>
+        <v>0.11</v>
       </c>
       <c r="F184">
-        <v>0.02000000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="G184" t="b">
         <v>1</v>
       </c>
       <c r="H184">
-        <v>96</v>
+        <v>243</v>
       </c>
       <c r="J184" s="1" t="s">
         <v>474</v>
@@ -12921,13 +12921,13 @@
         <v>190</v>
       </c>
       <c r="B185">
-        <v>0.0008917421808986685</v>
+        <v>0.0008750970371485601</v>
       </c>
       <c r="C185">
         <v>2</v>
       </c>
       <c r="D185">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E185">
         <v>0.96</v>
@@ -12939,7 +12939,7 @@
         <v>1</v>
       </c>
       <c r="H185">
-        <v>39</v>
+        <v>112</v>
       </c>
       <c r="J185" s="1" t="s">
         <v>475</v>
@@ -12971,25 +12971,25 @@
         <v>191</v>
       </c>
       <c r="B186">
-        <v>0.0008904237282523386</v>
+        <v>0.0008596109867214667</v>
       </c>
       <c r="C186">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D186">
-        <v>9</v>
+        <v>52</v>
       </c>
       <c r="E186">
-        <v>0.11</v>
+        <v>0.98</v>
       </c>
       <c r="F186">
-        <v>0.89</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G186" t="b">
         <v>1</v>
       </c>
       <c r="H186">
-        <v>243</v>
+        <v>111</v>
       </c>
       <c r="J186" s="1" t="s">
         <v>476</v>
@@ -13021,25 +13021,25 @@
         <v>192</v>
       </c>
       <c r="B187">
-        <v>0.0008646860677980894</v>
+        <v>0.0008355920902514014</v>
       </c>
       <c r="C187">
         <v>2</v>
       </c>
       <c r="D187">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="E187">
-        <v>0.96</v>
+        <v>0.95</v>
       </c>
       <c r="F187">
-        <v>0.04000000000000004</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G187" t="b">
         <v>1</v>
       </c>
       <c r="H187">
-        <v>112</v>
+        <v>27</v>
       </c>
       <c r="J187" s="1" t="s">
         <v>477</v>
@@ -13071,25 +13071,25 @@
         <v>193</v>
       </c>
       <c r="B188">
-        <v>0.000849384253849366</v>
+        <v>0.0008355920902514014</v>
       </c>
       <c r="C188">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D188">
-        <v>52</v>
+        <v>43</v>
       </c>
       <c r="E188">
-        <v>0.98</v>
+        <v>0.95</v>
       </c>
       <c r="F188">
-        <v>0.02000000000000002</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G188" t="b">
         <v>1</v>
       </c>
       <c r="H188">
-        <v>111</v>
+        <v>224</v>
       </c>
       <c r="J188" s="1" t="s">
         <v>478</v>
@@ -13121,25 +13121,25 @@
         <v>194</v>
       </c>
       <c r="B189">
-        <v>0.0008256511085410197</v>
+        <v>0.0007896741440644694</v>
       </c>
       <c r="C189">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D189">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E189">
-        <v>0.95</v>
+        <v>0.98</v>
       </c>
       <c r="F189">
-        <v>0.05000000000000004</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="G189" t="b">
         <v>1</v>
       </c>
       <c r="H189">
-        <v>27</v>
+        <v>265</v>
       </c>
       <c r="J189" s="1" t="s">
         <v>479</v>
@@ -13171,25 +13171,25 @@
         <v>195</v>
       </c>
       <c r="B190">
-        <v>0.0008256511085410197</v>
+        <v>0.0007634499597053778</v>
       </c>
       <c r="C190">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="D190">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="E190">
-        <v>0.95</v>
+        <v>0.88</v>
       </c>
       <c r="F190">
-        <v>0.05000000000000004</v>
+        <v>0.12</v>
       </c>
       <c r="G190" t="b">
         <v>1</v>
       </c>
       <c r="H190">
-        <v>224</v>
+        <v>488</v>
       </c>
       <c r="J190" s="1" t="s">
         <v>480</v>
@@ -13221,25 +13221,25 @@
         <v>196</v>
       </c>
       <c r="B191">
-        <v>0.000780279445006291</v>
+        <v>0.0007437592879417423</v>
       </c>
       <c r="C191">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D191">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E191">
-        <v>0.98</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F191">
-        <v>0.02000000000000002</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G191" t="b">
         <v>1</v>
       </c>
       <c r="H191">
-        <v>265</v>
+        <v>246</v>
       </c>
       <c r="J191" s="1" t="s">
         <v>481</v>
@@ -13271,25 +13271,25 @@
         <v>197</v>
       </c>
       <c r="B192">
-        <v>0.0007543672479674779</v>
+        <v>0.0007437592879417423</v>
       </c>
       <c r="C192">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D192">
-        <v>57</v>
+        <v>35</v>
       </c>
       <c r="E192">
-        <v>0.88</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F192">
-        <v>0.12</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G192" t="b">
         <v>1</v>
       </c>
       <c r="H192">
-        <v>488</v>
+        <v>96</v>
       </c>
       <c r="J192" s="1" t="s">
         <v>482</v>
@@ -13321,25 +13321,25 @@
         <v>198</v>
       </c>
       <c r="B193">
-        <v>0.0007349108347734854</v>
+        <v>0.0007419742678833066</v>
       </c>
       <c r="C193">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D193">
         <v>35</v>
       </c>
       <c r="E193">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F193">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G193" t="b">
         <v>1</v>
       </c>
       <c r="H193">
-        <v>246</v>
+        <v>11</v>
       </c>
       <c r="J193" s="1" t="s">
         <v>483</v>
@@ -13371,25 +13371,25 @@
         <v>199</v>
       </c>
       <c r="B194">
-        <v>0.0007349108347734854</v>
+        <v>0.0007419742678833066</v>
       </c>
       <c r="C194">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D194">
         <v>35</v>
       </c>
       <c r="E194">
-        <v>0.9399999999999999</v>
+        <v>0.97</v>
       </c>
       <c r="F194">
-        <v>0.06000000000000005</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G194" t="b">
         <v>1</v>
       </c>
       <c r="H194">
-        <v>96</v>
+        <v>112</v>
       </c>
       <c r="J194" s="1" t="s">
         <v>484</v>
@@ -13421,25 +13421,25 @@
         <v>200</v>
       </c>
       <c r="B195">
-        <v>0.0007331470509760921</v>
+        <v>0.0007345206835033522</v>
       </c>
       <c r="C195">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D195">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E195">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F195">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G195" t="b">
         <v>1</v>
       </c>
       <c r="H195">
-        <v>11</v>
+        <v>199</v>
       </c>
       <c r="J195" s="1" t="s">
         <v>485</v>
@@ -13471,25 +13471,25 @@
         <v>201</v>
       </c>
       <c r="B196">
-        <v>0.0007331470509760921</v>
+        <v>0.0007345206835033522</v>
       </c>
       <c r="C196">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D196">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="E196">
-        <v>0.97</v>
+        <v>0.92</v>
       </c>
       <c r="F196">
-        <v>0.03000000000000003</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G196" t="b">
         <v>1</v>
       </c>
       <c r="H196">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="J196" s="1" t="s">
         <v>486</v>
@@ -13521,25 +13521,25 @@
         <v>202</v>
       </c>
       <c r="B197">
-        <v>0.0007257821413776041</v>
+        <v>0.0007331479053879066</v>
       </c>
       <c r="C197">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D197">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E197">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F197">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G197" t="b">
         <v>1</v>
       </c>
       <c r="H197">
-        <v>199</v>
+        <v>103</v>
       </c>
       <c r="J197" s="1" t="s">
         <v>487</v>
@@ -13571,25 +13571,25 @@
         <v>203</v>
       </c>
       <c r="B198">
-        <v>0.0007257821413776041</v>
+        <v>0.0007146082155646045</v>
       </c>
       <c r="C198">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D198">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E198">
-        <v>0.92</v>
+        <v>0.97</v>
       </c>
       <c r="F198">
-        <v>0.07999999999999996</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="G198" t="b">
         <v>1</v>
       </c>
       <c r="H198">
-        <v>96</v>
+        <v>193</v>
       </c>
       <c r="J198" s="1" t="s">
         <v>488</v>
@@ -13621,13 +13621,13 @@
         <v>204</v>
       </c>
       <c r="B199">
-        <v>0.0007244256951091172</v>
+        <v>0.0006947595942543693</v>
       </c>
       <c r="C199">
         <v>1</v>
       </c>
       <c r="D199">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E199">
         <v>0.97</v>
@@ -13639,7 +13639,7 @@
         <v>1</v>
       </c>
       <c r="H199">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="J199" s="1" t="s">
         <v>489</v>
@@ -13671,25 +13671,25 @@
         <v>205</v>
       </c>
       <c r="B200">
-        <v>0.0007061065707023621</v>
+        <v>0.0006895516115022814</v>
       </c>
       <c r="C200">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D200">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E200">
-        <v>0.97</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F200">
-        <v>0.03000000000000003</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G200" t="b">
         <v>1</v>
       </c>
       <c r="H200">
-        <v>193</v>
+        <v>329</v>
       </c>
       <c r="J200" s="1" t="s">
         <v>490</v>
@@ -13721,25 +13721,25 @@
         <v>206</v>
       </c>
       <c r="B201">
-        <v>0.0006864940870766782</v>
+        <v>0.0006749204941192761</v>
       </c>
       <c r="C201">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D201">
         <v>30</v>
       </c>
       <c r="E201">
-        <v>0.97</v>
+        <v>0.93</v>
       </c>
       <c r="F201">
-        <v>0.03000000000000003</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G201" t="b">
         <v>1</v>
       </c>
       <c r="H201">
-        <v>28</v>
+        <v>67</v>
       </c>
       <c r="J201" s="1" t="s">
         <v>491</v>
@@ -13771,25 +13771,25 @@
         <v>207</v>
       </c>
       <c r="B202">
-        <v>0.0006813480633377145</v>
+        <v>0.0006749204941192761</v>
       </c>
       <c r="C202">
         <v>2</v>
       </c>
       <c r="D202">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E202">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F202">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G202" t="b">
         <v>1</v>
       </c>
       <c r="H202">
-        <v>329</v>
+        <v>155</v>
       </c>
       <c r="J202" s="1" t="s">
         <v>492</v>
@@ -13821,25 +13821,25 @@
         <v>208</v>
       </c>
       <c r="B203">
-        <v>0.0006668910113533694</v>
+        <v>0.000658367341620228</v>
       </c>
       <c r="C203">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D203">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E203">
-        <v>0.93</v>
+        <v>0.91</v>
       </c>
       <c r="F203">
-        <v>0.06999999999999995</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G203" t="b">
         <v>1</v>
       </c>
       <c r="H203">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="J203" s="1" t="s">
         <v>493</v>
@@ -13871,25 +13871,25 @@
         <v>209</v>
       </c>
       <c r="B204">
-        <v>0.0006668910113533694</v>
+        <v>0.0006503864536770258</v>
       </c>
       <c r="C204">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D204">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E204">
-        <v>0.93</v>
+        <v>0.96</v>
       </c>
       <c r="F204">
-        <v>0.06999999999999995</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G204" t="b">
         <v>1</v>
       </c>
       <c r="H204">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="J204" s="1" t="s">
         <v>494</v>
@@ -13921,25 +13921,25 @@
         <v>210</v>
       </c>
       <c r="B205">
-        <v>0.0006505347905727543</v>
+        <v>0.0006503864536770258</v>
       </c>
       <c r="C205">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D205">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="E205">
-        <v>0.91</v>
+        <v>0.96</v>
       </c>
       <c r="F205">
-        <v>0.08999999999999997</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="G205" t="b">
         <v>1</v>
       </c>
       <c r="H205">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="J205" s="1" t="s">
         <v>495</v>
@@ -13971,13 +13971,13 @@
         <v>211</v>
       </c>
       <c r="B206">
-        <v>0.0006426488507052958</v>
+        <v>0.0006381489575037406</v>
       </c>
       <c r="C206">
         <v>1</v>
       </c>
       <c r="D206">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E206">
         <v>0.96</v>
@@ -13989,7 +13989,7 @@
         <v>1</v>
       </c>
       <c r="H206">
-        <v>138</v>
+        <v>94</v>
       </c>
       <c r="J206" s="1" t="s">
         <v>496</v>
@@ -14021,13 +14021,13 @@
         <v>212</v>
       </c>
       <c r="B207">
-        <v>0.0006426488507052958</v>
+        <v>0.0006381489575037406</v>
       </c>
       <c r="C207">
         <v>1</v>
       </c>
       <c r="D207">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E207">
         <v>0.96</v>
@@ -14039,7 +14039,7 @@
         <v>1</v>
       </c>
       <c r="H207">
-        <v>103</v>
+        <v>439</v>
       </c>
       <c r="J207" s="1" t="s">
         <v>497</v>
@@ -14071,13 +14071,13 @@
         <v>213</v>
       </c>
       <c r="B208">
-        <v>0.0006305569431835294</v>
+        <v>0.0006253822036412142</v>
       </c>
       <c r="C208">
         <v>1</v>
       </c>
       <c r="D208">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E208">
         <v>0.96</v>
@@ -14089,7 +14089,7 @@
         <v>1</v>
       </c>
       <c r="H208">
-        <v>94</v>
+        <v>33</v>
       </c>
       <c r="J208" s="1" t="s">
         <v>498</v>
@@ -14121,25 +14121,25 @@
         <v>214</v>
       </c>
       <c r="B209">
-        <v>0.0006305569431835294</v>
+        <v>0.000624912836047595</v>
       </c>
       <c r="C209">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D209">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E209">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F209">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G209" t="b">
         <v>1</v>
       </c>
       <c r="H209">
-        <v>439</v>
+        <v>81</v>
       </c>
       <c r="J209" s="1" t="s">
         <v>499</v>
@@ -14171,25 +14171,25 @@
         <v>215</v>
       </c>
       <c r="B210">
-        <v>0.000617942074514902</v>
+        <v>0.0006074550358185259</v>
       </c>
       <c r="C210">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D210">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E210">
-        <v>0.96</v>
+        <v>0.9</v>
       </c>
       <c r="F210">
-        <v>0.04000000000000004</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G210" t="b">
         <v>1</v>
       </c>
       <c r="H210">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="J210" s="1" t="s">
         <v>500</v>
@@ -14221,25 +14221,25 @@
         <v>216</v>
       </c>
       <c r="B211">
-        <v>0.0006174782909553086</v>
+        <v>0.0005980827112731256</v>
       </c>
       <c r="C211">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D211">
-        <v>31</v>
+        <v>22</v>
       </c>
       <c r="E211">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F211">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G211" t="b">
         <v>1</v>
       </c>
       <c r="H211">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="J211" s="1" t="s">
         <v>501</v>
@@ -14271,25 +14271,25 @@
         <v>217</v>
       </c>
       <c r="B212">
-        <v>0.0006002281849765865</v>
+        <v>0.0005980827112731256</v>
       </c>
       <c r="C212">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D212">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E212">
-        <v>0.9</v>
+        <v>0.95</v>
       </c>
       <c r="F212">
-        <v>0.09999999999999998</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G212" t="b">
         <v>1</v>
       </c>
       <c r="H212">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="J212" s="1" t="s">
         <v>502</v>
@@ -14321,7 +14321,7 @@
         <v>218</v>
       </c>
       <c r="B213">
-        <v>0.0005909673623326242</v>
+        <v>0.0005980827112731256</v>
       </c>
       <c r="C213">
         <v>1</v>
@@ -14339,7 +14339,7 @@
         <v>1</v>
       </c>
       <c r="H213">
-        <v>79</v>
+        <v>205</v>
       </c>
       <c r="J213" s="1" t="s">
         <v>503</v>
@@ -14371,25 +14371,25 @@
         <v>219</v>
       </c>
       <c r="B214">
-        <v>0.0005909673623326242</v>
+        <v>0.0005938694760329441</v>
       </c>
       <c r="C214">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D214">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E214">
-        <v>0.95</v>
+        <v>0.92</v>
       </c>
       <c r="F214">
-        <v>0.05000000000000004</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G214" t="b">
         <v>1</v>
       </c>
       <c r="H214">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="J214" s="1" t="s">
         <v>504</v>
@@ -14421,25 +14421,25 @@
         <v>220</v>
       </c>
       <c r="B215">
-        <v>0.0005909673623326242</v>
+        <v>0.0005880592638263403</v>
       </c>
       <c r="C215">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="D215">
-        <v>22</v>
+        <v>75</v>
       </c>
       <c r="E215">
-        <v>0.95</v>
+        <v>0.8</v>
       </c>
       <c r="F215">
-        <v>0.05000000000000004</v>
+        <v>0.2</v>
       </c>
       <c r="G215" t="b">
         <v>1</v>
       </c>
       <c r="H215">
-        <v>205</v>
+        <v>893</v>
       </c>
       <c r="J215" s="1" t="s">
         <v>505</v>
@@ -14471,25 +14471,25 @@
         <v>221</v>
       </c>
       <c r="B216">
-        <v>0.0005868042516627358</v>
+        <v>0.0005680724627810322</v>
       </c>
       <c r="C216">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D216">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E216">
-        <v>0.92</v>
+        <v>0.95</v>
       </c>
       <c r="F216">
-        <v>0.07999999999999996</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G216" t="b">
         <v>1</v>
       </c>
       <c r="H216">
-        <v>48</v>
+        <v>210</v>
       </c>
       <c r="J216" s="1" t="s">
         <v>506</v>
@@ -14521,25 +14521,25 @@
         <v>222</v>
       </c>
       <c r="B217">
-        <v>0.0005810631631517165</v>
+        <v>0.0005680724627810322</v>
       </c>
       <c r="C217">
-        <v>15</v>
+        <v>1</v>
       </c>
       <c r="D217">
-        <v>75</v>
+        <v>20</v>
       </c>
       <c r="E217">
-        <v>0.8</v>
+        <v>0.95</v>
       </c>
       <c r="F217">
-        <v>0.2</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="G217" t="b">
         <v>1</v>
       </c>
       <c r="H217">
-        <v>893</v>
+        <v>92</v>
       </c>
       <c r="J217" s="1" t="s">
         <v>507</v>
@@ -14571,7 +14571,7 @@
         <v>223</v>
       </c>
       <c r="B218">
-        <v>0.0005613141437057778</v>
+        <v>0.0005680724627810322</v>
       </c>
       <c r="C218">
         <v>1</v>
@@ -14589,7 +14589,7 @@
         <v>1</v>
       </c>
       <c r="H218">
-        <v>210</v>
+        <v>28</v>
       </c>
       <c r="J218" s="1" t="s">
         <v>508</v>
@@ -14621,25 +14621,25 @@
         <v>224</v>
       </c>
       <c r="B219">
-        <v>0.0005613141437057778</v>
+        <v>0.0005570733134216473</v>
       </c>
       <c r="C219">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D219">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E219">
-        <v>0.95</v>
+        <v>0.91</v>
       </c>
       <c r="F219">
-        <v>0.05000000000000004</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G219" t="b">
         <v>1</v>
       </c>
       <c r="H219">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="J219" s="1" t="s">
         <v>509</v>
@@ -14671,13 +14671,13 @@
         <v>225</v>
       </c>
       <c r="B220">
-        <v>0.0005613141437057778</v>
+        <v>0.000551889447630453</v>
       </c>
       <c r="C220">
         <v>1</v>
       </c>
       <c r="D220">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E220">
         <v>0.95</v>
@@ -14689,7 +14689,7 @@
         <v>1</v>
       </c>
       <c r="H220">
-        <v>28</v>
+        <v>153</v>
       </c>
       <c r="J220" s="1" t="s">
         <v>510</v>
@@ -14721,25 +14721,25 @@
         <v>226</v>
       </c>
       <c r="B221">
-        <v>0.0005504458504709147</v>
+        <v>0.0005348163164430838</v>
       </c>
       <c r="C221">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D221">
-        <v>23</v>
+        <v>18</v>
       </c>
       <c r="E221">
-        <v>0.91</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F221">
-        <v>0.08999999999999997</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G221" t="b">
         <v>1</v>
       </c>
       <c r="H221">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="J221" s="1" t="s">
         <v>511</v>
@@ -14771,28 +14771,28 @@
         <v>227</v>
       </c>
       <c r="B222">
-        <v>0.0005453236567750173</v>
+        <v>0.000516759390945058</v>
       </c>
       <c r="C222">
         <v>1</v>
       </c>
       <c r="D222">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E222">
-        <v>0.95</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="F222">
-        <v>0.05000000000000004</v>
+        <v>0.06000000000000005</v>
       </c>
       <c r="G222" t="b">
         <v>1</v>
       </c>
       <c r="H222">
-        <v>153</v>
+        <v>44</v>
       </c>
       <c r="J222" s="1" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="K222">
         <v>0.0009533011721979544</v>
@@ -14821,13 +14821,13 @@
         <v>228</v>
       </c>
       <c r="B223">
-        <v>0.0005284536434568246</v>
+        <v>0.000516759390945058</v>
       </c>
       <c r="C223">
         <v>1</v>
       </c>
       <c r="D223">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E223">
         <v>0.9399999999999999</v>
@@ -14839,10 +14839,10 @@
         <v>1</v>
       </c>
       <c r="H223">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="J223" s="1" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K223">
         <v>0.000944074160268455</v>
@@ -14871,7 +14871,7 @@
         <v>229</v>
       </c>
       <c r="B224">
-        <v>0.0005106115399613235</v>
+        <v>0.000516759390945058</v>
       </c>
       <c r="C224">
         <v>1</v>
@@ -14889,10 +14889,10 @@
         <v>1</v>
       </c>
       <c r="H224">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="J224" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="K224">
         <v>0.0008592606208207625</v>
@@ -14921,7 +14921,7 @@
         <v>230</v>
       </c>
       <c r="B225">
-        <v>0.0005106115399613235</v>
+        <v>0.000516759390945058</v>
       </c>
       <c r="C225">
         <v>1</v>
@@ -14939,10 +14939,10 @@
         <v>1</v>
       </c>
       <c r="H225">
-        <v>26</v>
+        <v>121</v>
       </c>
       <c r="J225" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="K225">
         <v>0.0008592606208207625</v>
@@ -14971,25 +14971,25 @@
         <v>231</v>
       </c>
       <c r="B226">
-        <v>0.0005106115399613235</v>
+        <v>0.000511741539379927</v>
       </c>
       <c r="C226">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D226">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E226">
-        <v>0.9399999999999999</v>
+        <v>0.88</v>
       </c>
       <c r="F226">
-        <v>0.06000000000000005</v>
+        <v>0.12</v>
       </c>
       <c r="G226" t="b">
         <v>1</v>
       </c>
       <c r="H226">
-        <v>82</v>
+        <v>102</v>
       </c>
       <c r="J226" s="1" t="s">
         <v>512</v>
@@ -15021,13 +15021,13 @@
         <v>232</v>
       </c>
       <c r="B227">
-        <v>0.0005106115399613235</v>
+        <v>0.0004976099376621849</v>
       </c>
       <c r="C227">
         <v>1</v>
       </c>
       <c r="D227">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E227">
         <v>0.9399999999999999</v>
@@ -15039,7 +15039,7 @@
         <v>1</v>
       </c>
       <c r="H227">
-        <v>121</v>
+        <v>63</v>
       </c>
       <c r="J227" s="1" t="s">
         <v>513</v>
@@ -15071,25 +15071,25 @@
         <v>233</v>
       </c>
       <c r="B228">
-        <v>0.0005056533854316436</v>
+        <v>0.0004959849598131558</v>
       </c>
       <c r="C228">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D228">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E228">
-        <v>0.88</v>
+        <v>0.9</v>
       </c>
       <c r="F228">
-        <v>0.12</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G228" t="b">
         <v>1</v>
       </c>
       <c r="H228">
-        <v>102</v>
+        <v>84</v>
       </c>
       <c r="J228" s="1" t="s">
         <v>514</v>
@@ -15121,25 +15121,25 @@
         <v>234</v>
       </c>
       <c r="B229">
-        <v>0.0004916899064089981</v>
+        <v>0.0004555024546567418</v>
       </c>
       <c r="C229">
         <v>1</v>
       </c>
       <c r="D229">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E229">
-        <v>0.9399999999999999</v>
+        <v>0.93</v>
       </c>
       <c r="F229">
-        <v>0.06000000000000005</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G229" t="b">
         <v>1</v>
       </c>
       <c r="H229">
-        <v>63</v>
+        <v>19</v>
       </c>
       <c r="J229" s="1" t="s">
         <v>515</v>
@@ -15171,25 +15171,25 @@
         <v>235</v>
       </c>
       <c r="B230">
-        <v>0.0004900842608098376</v>
+        <v>0.0004555024546567418</v>
       </c>
       <c r="C230">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D230">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="E230">
-        <v>0.9</v>
+        <v>0.93</v>
       </c>
       <c r="F230">
-        <v>0.09999999999999998</v>
+        <v>0.06999999999999995</v>
       </c>
       <c r="G230" t="b">
         <v>1</v>
       </c>
       <c r="H230">
-        <v>84</v>
+        <v>152</v>
       </c>
       <c r="J230" s="1" t="s">
         <v>516</v>
@@ -15221,7 +15221,7 @@
         <v>236</v>
       </c>
       <c r="B231">
-        <v>0.0004500833732369856</v>
+        <v>0.0004555024546567418</v>
       </c>
       <c r="C231">
         <v>1</v>
@@ -15239,7 +15239,7 @@
         <v>1</v>
       </c>
       <c r="H231">
-        <v>19</v>
+        <v>114</v>
       </c>
       <c r="J231" s="1" t="s">
         <v>517</v>
@@ -15271,25 +15271,25 @@
         <v>237</v>
       </c>
       <c r="B232">
-        <v>0.0004500833732369856</v>
+        <v>0.0004322169657637389</v>
       </c>
       <c r="C232">
         <v>1</v>
       </c>
       <c r="D232">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E232">
-        <v>0.93</v>
+        <v>0.92</v>
       </c>
       <c r="F232">
-        <v>0.06999999999999995</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G232" t="b">
         <v>1</v>
       </c>
       <c r="H232">
-        <v>152</v>
+        <v>75</v>
       </c>
       <c r="J232" s="1" t="s">
         <v>518</v>
@@ -15321,25 +15321,25 @@
         <v>238</v>
       </c>
       <c r="B233">
-        <v>0.0004500833732369856</v>
+        <v>0.0004262198426972207</v>
       </c>
       <c r="C233">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D233">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E233">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="F233">
-        <v>0.06999999999999995</v>
+        <v>0.12</v>
       </c>
       <c r="G233" t="b">
         <v>1</v>
       </c>
       <c r="H233">
-        <v>114</v>
+        <v>55</v>
       </c>
       <c r="J233" s="1" t="s">
         <v>519</v>
@@ -15371,25 +15371,25 @@
         <v>239</v>
       </c>
       <c r="B234">
-        <v>0.0004270749102061267</v>
+        <v>0.0004262198426972207</v>
       </c>
       <c r="C234">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D234">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="E234">
-        <v>0.92</v>
+        <v>0.88</v>
       </c>
       <c r="F234">
-        <v>0.07999999999999996</v>
+        <v>0.12</v>
       </c>
       <c r="G234" t="b">
         <v>1</v>
       </c>
       <c r="H234">
-        <v>75</v>
+        <v>92</v>
       </c>
       <c r="J234" s="1" t="s">
         <v>520</v>
@@ -15421,25 +15421,25 @@
         <v>240</v>
       </c>
       <c r="B235">
-        <v>0.0004211491345008565</v>
+        <v>0.0004071714615937979</v>
       </c>
       <c r="C235">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D235">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E235">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F235">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G235" t="b">
         <v>1</v>
       </c>
       <c r="H235">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="J235" s="1" t="s">
         <v>521</v>
@@ -15471,25 +15471,25 @@
         <v>241</v>
       </c>
       <c r="B236">
-        <v>0.0004211491345008565</v>
+        <v>0.0004071714615937979</v>
       </c>
       <c r="C236">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D236">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="E236">
-        <v>0.88</v>
+        <v>0.92</v>
       </c>
       <c r="F236">
-        <v>0.12</v>
+        <v>0.07999999999999996</v>
       </c>
       <c r="G236" t="b">
         <v>1</v>
       </c>
       <c r="H236">
-        <v>92</v>
+        <v>35</v>
       </c>
       <c r="J236" s="1" t="s">
         <v>522</v>
@@ -15521,25 +15521,25 @@
         <v>242</v>
       </c>
       <c r="B237">
-        <v>0.0004023273706792039</v>
+        <v>0.0003801085619100974</v>
       </c>
       <c r="C237">
         <v>1</v>
       </c>
       <c r="D237">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E237">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F237">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G237" t="b">
         <v>1</v>
       </c>
       <c r="H237">
-        <v>51</v>
+        <v>78</v>
       </c>
       <c r="J237" s="1" t="s">
         <v>523</v>
@@ -15571,25 +15571,25 @@
         <v>243</v>
       </c>
       <c r="B238">
-        <v>0.0004023273706792039</v>
+        <v>0.0003801085619100974</v>
       </c>
       <c r="C238">
         <v>1</v>
       </c>
       <c r="D238">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E238">
-        <v>0.92</v>
+        <v>0.91</v>
       </c>
       <c r="F238">
-        <v>0.07999999999999996</v>
+        <v>0.08999999999999997</v>
       </c>
       <c r="G238" t="b">
         <v>1</v>
       </c>
       <c r="H238">
-        <v>35</v>
+        <v>55</v>
       </c>
       <c r="J238" s="1" t="s">
         <v>524</v>
@@ -15621,25 +15621,25 @@
         <v>244</v>
       </c>
       <c r="B239">
-        <v>0.0003755864364543969</v>
+        <v>0.0003737299041923277</v>
       </c>
       <c r="C239">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D239">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E239">
-        <v>0.91</v>
+        <v>0.87</v>
       </c>
       <c r="F239">
-        <v>0.08999999999999997</v>
+        <v>0.13</v>
       </c>
       <c r="G239" t="b">
         <v>1</v>
       </c>
       <c r="H239">
-        <v>78</v>
+        <v>122</v>
       </c>
       <c r="J239" s="1" t="s">
         <v>525</v>
@@ -15671,25 +15671,25 @@
         <v>245</v>
       </c>
       <c r="B240">
-        <v>0.0003755864364543969</v>
+        <v>0.0003507143284504197</v>
       </c>
       <c r="C240">
         <v>1</v>
       </c>
       <c r="D240">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E240">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="F240">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G240" t="b">
         <v>1</v>
       </c>
       <c r="H240">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="J240" s="1" t="s">
         <v>526</v>
@@ -15721,25 +15721,25 @@
         <v>246</v>
       </c>
       <c r="B241">
-        <v>0.000369283665189418</v>
+        <v>0.0003507143284504197</v>
       </c>
       <c r="C241">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D241">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="E241">
-        <v>0.87</v>
+        <v>0.9</v>
       </c>
       <c r="F241">
-        <v>0.13</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="G241" t="b">
         <v>1</v>
       </c>
       <c r="H241">
-        <v>122</v>
+        <v>26</v>
       </c>
       <c r="J241" s="1" t="s">
         <v>527</v>
@@ -15771,7 +15771,7 @@
         <v>247</v>
       </c>
       <c r="B242">
-        <v>0.0003465419041714327</v>
+        <v>0.0003507143284504197</v>
       </c>
       <c r="C242">
         <v>1</v>
@@ -15789,7 +15789,7 @@
         <v>1</v>
       </c>
       <c r="H242">
-        <v>85</v>
+        <v>39</v>
       </c>
       <c r="J242" s="1" t="s">
         <v>528</v>
@@ -15821,7 +15821,7 @@
         <v>248</v>
       </c>
       <c r="B243">
-        <v>0.0003465419041714327</v>
+        <v>0.0003507143284504197</v>
       </c>
       <c r="C243">
         <v>1</v>
@@ -15839,7 +15839,7 @@
         <v>1</v>
       </c>
       <c r="H243">
-        <v>26</v>
+        <v>90</v>
       </c>
       <c r="J243" s="1" t="s">
         <v>529</v>
@@ -15871,7 +15871,7 @@
         <v>249</v>
       </c>
       <c r="B244">
-        <v>0.0003465419041714327</v>
+        <v>0.0003507143284504197</v>
       </c>
       <c r="C244">
         <v>1</v>
@@ -15889,7 +15889,7 @@
         <v>1</v>
       </c>
       <c r="H244">
-        <v>39</v>
+        <v>72</v>
       </c>
       <c r="J244" s="1" t="s">
         <v>530</v>
@@ -15921,25 +15921,25 @@
         <v>250</v>
       </c>
       <c r="B245">
-        <v>0.0003465419041714327</v>
+        <v>0.0003186027229014711</v>
       </c>
       <c r="C245">
         <v>1</v>
       </c>
       <c r="D245">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E245">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F245">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G245" t="b">
         <v>1</v>
       </c>
       <c r="H245">
-        <v>90</v>
+        <v>54</v>
       </c>
       <c r="J245" s="1" t="s">
         <v>531</v>
@@ -15971,25 +15971,25 @@
         <v>251</v>
       </c>
       <c r="B246">
-        <v>0.0003465419041714327</v>
+        <v>0.0003186027229014711</v>
       </c>
       <c r="C246">
         <v>1</v>
       </c>
       <c r="D246">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E246">
-        <v>0.9</v>
+        <v>0.89</v>
       </c>
       <c r="F246">
-        <v>0.09999999999999998</v>
+        <v>0.11</v>
       </c>
       <c r="G246" t="b">
         <v>1</v>
       </c>
       <c r="H246">
-        <v>72</v>
+        <v>44</v>
       </c>
       <c r="J246" s="1" t="s">
         <v>532</v>
@@ -16021,7 +16021,7 @@
         <v>252</v>
       </c>
       <c r="B247">
-        <v>0.0003148123281883181</v>
+        <v>0.0003186027229014711</v>
       </c>
       <c r="C247">
         <v>1</v>
@@ -16039,7 +16039,7 @@
         <v>1</v>
       </c>
       <c r="H247">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="J247" s="1" t="s">
         <v>533</v>
@@ -16071,7 +16071,7 @@
         <v>253</v>
       </c>
       <c r="B248">
-        <v>0.0003148123281883181</v>
+        <v>0.0003186027229014711</v>
       </c>
       <c r="C248">
         <v>1</v>
@@ -16089,7 +16089,7 @@
         <v>1</v>
       </c>
       <c r="H248">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="J248" s="1" t="s">
         <v>534</v>
@@ -16121,7 +16121,7 @@
         <v>254</v>
       </c>
       <c r="B249">
-        <v>0.0003148123281883181</v>
+        <v>0.0003186027229014711</v>
       </c>
       <c r="C249">
         <v>1</v>
@@ -16139,7 +16139,7 @@
         <v>1</v>
       </c>
       <c r="H249">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="J249" s="1" t="s">
         <v>535</v>
@@ -16171,25 +16171,25 @@
         <v>255</v>
       </c>
       <c r="B250">
-        <v>0.0003148123281883181</v>
+        <v>0.0002832967007778357</v>
       </c>
       <c r="C250">
         <v>1</v>
       </c>
       <c r="D250">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E250">
-        <v>0.89</v>
+        <v>0.88</v>
       </c>
       <c r="F250">
-        <v>0.11</v>
+        <v>0.12</v>
       </c>
       <c r="G250" t="b">
         <v>1</v>
       </c>
       <c r="H250">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="J250" s="1" t="s">
         <v>536</v>
@@ -16221,25 +16221,25 @@
         <v>256</v>
       </c>
       <c r="B251">
-        <v>0.0003148123281883181</v>
+        <v>0.0002629880977428359</v>
       </c>
       <c r="C251">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D251">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E251">
-        <v>0.89</v>
+        <v>0.8</v>
       </c>
       <c r="F251">
-        <v>0.11</v>
+        <v>0.2</v>
       </c>
       <c r="G251" t="b">
         <v>1</v>
       </c>
       <c r="H251">
-        <v>46</v>
+        <v>27</v>
       </c>
       <c r="J251" s="1" t="s">
         <v>537</v>
@@ -16271,25 +16271,25 @@
         <v>257</v>
       </c>
       <c r="B252">
-        <v>0.0002799263393851176</v>
+        <v>0.000244209030201005</v>
       </c>
       <c r="C252">
         <v>1</v>
       </c>
       <c r="D252">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E252">
-        <v>0.88</v>
+        <v>0.86</v>
       </c>
       <c r="F252">
-        <v>0.12</v>
+        <v>0.14</v>
       </c>
       <c r="G252" t="b">
         <v>1</v>
       </c>
       <c r="H252">
-        <v>23</v>
+        <v>40</v>
       </c>
       <c r="J252" s="1" t="s">
         <v>538</v>
@@ -16321,25 +16321,25 @@
         <v>258</v>
       </c>
       <c r="B253">
-        <v>0.0002598593464056577</v>
+        <v>0.000244209030201005</v>
       </c>
       <c r="C253">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D253">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="E253">
-        <v>0.8</v>
+        <v>0.86</v>
       </c>
       <c r="F253">
-        <v>0.2</v>
+        <v>0.14</v>
       </c>
       <c r="G253" t="b">
         <v>1</v>
       </c>
       <c r="H253">
-        <v>27</v>
+        <v>57</v>
       </c>
       <c r="J253" s="1" t="s">
         <v>539</v>
@@ -16371,7 +16371,7 @@
         <v>259</v>
       </c>
       <c r="B254">
-        <v>0.0002413036921406509</v>
+        <v>0.000244209030201005</v>
       </c>
       <c r="C254">
         <v>1</v>
@@ -16389,7 +16389,7 @@
         <v>1</v>
       </c>
       <c r="H254">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="J254" s="1" t="s">
         <v>540</v>
@@ -16421,7 +16421,7 @@
         <v>260</v>
       </c>
       <c r="B255">
-        <v>0.0002413036921406509</v>
+        <v>0.000244209030201005</v>
       </c>
       <c r="C255">
         <v>1</v>
@@ -16439,7 +16439,7 @@
         <v>1</v>
       </c>
       <c r="H255">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="J255" s="1" t="s">
         <v>541</v>
@@ -16471,7 +16471,7 @@
         <v>261</v>
       </c>
       <c r="B256">
-        <v>0.0002413036921406509</v>
+        <v>0.000244209030201005</v>
       </c>
       <c r="C256">
         <v>1</v>
@@ -16489,7 +16489,7 @@
         <v>1</v>
       </c>
       <c r="H256">
-        <v>20</v>
+        <v>56</v>
       </c>
       <c r="J256" s="1" t="s">
         <v>542</v>
@@ -16521,7 +16521,7 @@
         <v>262</v>
       </c>
       <c r="B257">
-        <v>0.0002413036921406509</v>
+        <v>0.000244209030201005</v>
       </c>
       <c r="C257">
         <v>1</v>
@@ -16539,7 +16539,7 @@
         <v>1</v>
       </c>
       <c r="H257">
-        <v>79</v>
+        <v>43</v>
       </c>
       <c r="J257" s="1" t="s">
         <v>543</v>
@@ -16571,7 +16571,7 @@
         <v>263</v>
       </c>
       <c r="B258">
-        <v>0.0002413036921406509</v>
+        <v>0.000244209030201005</v>
       </c>
       <c r="C258">
         <v>1</v>
@@ -16589,7 +16589,7 @@
         <v>1</v>
       </c>
       <c r="H258">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="J258" s="1" t="s">
         <v>544</v>
@@ -16621,7 +16621,7 @@
         <v>264</v>
       </c>
       <c r="B259">
-        <v>0.0002413036921406509</v>
+        <v>0.000244209030201005</v>
       </c>
       <c r="C259">
         <v>1</v>
@@ -16639,7 +16639,7 @@
         <v>1</v>
       </c>
       <c r="H259">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="J259" s="1" t="s">
         <v>545</v>
@@ -16671,7 +16671,7 @@
         <v>265</v>
       </c>
       <c r="B260">
-        <v>0.0002413036921406509</v>
+        <v>0.000244209030201005</v>
       </c>
       <c r="C260">
         <v>1</v>
@@ -16689,7 +16689,7 @@
         <v>1</v>
       </c>
       <c r="H260">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="J260" s="1" t="s">
         <v>546</v>
@@ -16721,25 +16721,25 @@
         <v>266</v>
       </c>
       <c r="B261">
-        <v>0.0002413036921406509</v>
+        <v>0.0002147288826317122</v>
       </c>
       <c r="C261">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D261">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E261">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F261">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G261" t="b">
         <v>1</v>
       </c>
       <c r="H261">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="J261" s="1" t="s">
         <v>547</v>
@@ -16771,25 +16771,25 @@
         <v>267</v>
       </c>
       <c r="B262">
-        <v>0.0002413036921406509</v>
+        <v>0.0002147288826317122</v>
       </c>
       <c r="C262">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D262">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="E262">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="F262">
-        <v>0.14</v>
+        <v>0.2</v>
       </c>
       <c r="G262" t="b">
         <v>1</v>
       </c>
       <c r="H262">
-        <v>54</v>
+        <v>128</v>
       </c>
       <c r="J262" s="1" t="s">
         <v>548</v>
@@ -16821,25 +16821,25 @@
         <v>268</v>
       </c>
       <c r="B263">
-        <v>0.0002121742678623331</v>
+        <v>0.0002006375872859946</v>
       </c>
       <c r="C263">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D263">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E263">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F263">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G263" t="b">
         <v>1</v>
       </c>
       <c r="H263">
-        <v>24</v>
+        <v>72</v>
       </c>
       <c r="J263" s="1" t="s">
         <v>549</v>
@@ -16871,25 +16871,25 @@
         <v>269</v>
       </c>
       <c r="B264">
-        <v>0.0002121742678623331</v>
+        <v>0.0002006375872859946</v>
       </c>
       <c r="C264">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D264">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="E264">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="F264">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="G264" t="b">
         <v>1</v>
       </c>
       <c r="H264">
-        <v>128</v>
+        <v>36</v>
       </c>
       <c r="J264" s="1" t="s">
         <v>550</v>
@@ -16921,7 +16921,7 @@
         <v>270</v>
       </c>
       <c r="B265">
-        <v>0.0001982506156895724</v>
+        <v>0.0002006375872859946</v>
       </c>
       <c r="C265">
         <v>1</v>
@@ -16939,7 +16939,7 @@
         <v>1</v>
       </c>
       <c r="H265">
-        <v>72</v>
+        <v>35</v>
       </c>
       <c r="J265" s="1" t="s">
         <v>551</v>
@@ -16971,7 +16971,7 @@
         <v>271</v>
       </c>
       <c r="B266">
-        <v>0.0001982506156895724</v>
+        <v>0.0002006375872859946</v>
       </c>
       <c r="C266">
         <v>1</v>
@@ -16989,7 +16989,7 @@
         <v>1</v>
       </c>
       <c r="H266">
-        <v>36</v>
+        <v>44</v>
       </c>
       <c r="J266" s="1" t="s">
         <v>552</v>
@@ -17021,7 +17021,7 @@
         <v>272</v>
       </c>
       <c r="B267">
-        <v>0.0001982506156895724</v>
+        <v>0.0002006375872859946</v>
       </c>
       <c r="C267">
         <v>1</v>
@@ -17039,7 +17039,7 @@
         <v>1</v>
       </c>
       <c r="H267">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="J267" s="1" t="s">
         <v>553</v>
@@ -17071,25 +17071,25 @@
         <v>273</v>
       </c>
       <c r="B268">
-        <v>0.0001982506156895724</v>
+        <v>0.0001772169622510339</v>
       </c>
       <c r="C268">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D268">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="E268">
-        <v>0.83</v>
+        <v>0.78</v>
       </c>
       <c r="F268">
-        <v>0.17</v>
+        <v>0.22</v>
       </c>
       <c r="G268" t="b">
         <v>1</v>
       </c>
       <c r="H268">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="J268" s="1" t="s">
         <v>554</v>
@@ -17121,25 +17121,25 @@
         <v>274</v>
       </c>
       <c r="B269">
-        <v>0.0001982506156895724</v>
+        <v>0.000151836249025494</v>
       </c>
       <c r="C269">
         <v>1</v>
       </c>
       <c r="D269">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="E269">
-        <v>0.83</v>
+        <v>0.8</v>
       </c>
       <c r="F269">
-        <v>0.17</v>
+        <v>0.2</v>
       </c>
       <c r="G269" t="b">
         <v>1</v>
       </c>
       <c r="H269">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="J269" s="1" t="s">
         <v>555</v>
@@ -17171,25 +17171,25 @@
         <v>275</v>
       </c>
       <c r="B270">
-        <v>0.0001751086242221556</v>
+        <v>0.000151836249025494</v>
       </c>
       <c r="C270">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D270">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E270">
-        <v>0.78</v>
+        <v>0.8</v>
       </c>
       <c r="F270">
-        <v>0.22</v>
+        <v>0.2</v>
       </c>
       <c r="G270" t="b">
         <v>1</v>
       </c>
       <c r="H270">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="J270" s="1" t="s">
         <v>556</v>
@@ -17221,7 +17221,7 @@
         <v>276</v>
       </c>
       <c r="B271">
-        <v>0.0001500298635987467</v>
+        <v>0.000151836249025494</v>
       </c>
       <c r="C271">
         <v>1</v>
@@ -17239,7 +17239,7 @@
         <v>1</v>
       </c>
       <c r="H271">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="J271" s="1" t="s">
         <v>557</v>
@@ -17271,25 +17271,25 @@
         <v>277</v>
       </c>
       <c r="B272">
-        <v>0.0001500298635987467</v>
+        <v>0.0001377891690310599</v>
       </c>
       <c r="C272">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D272">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E272">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F272">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G272" t="b">
         <v>1</v>
       </c>
       <c r="H272">
-        <v>60</v>
+        <v>19</v>
       </c>
       <c r="J272" s="1" t="s">
         <v>558</v>
@@ -17321,25 +17321,25 @@
         <v>278</v>
       </c>
       <c r="B273">
-        <v>0.0001500298635987467</v>
+        <v>0.0001377891690310599</v>
       </c>
       <c r="C273">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D273">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="E273">
-        <v>0.8</v>
+        <v>0.75</v>
       </c>
       <c r="F273">
-        <v>0.2</v>
+        <v>0.25</v>
       </c>
       <c r="G273" t="b">
         <v>1</v>
       </c>
       <c r="H273">
-        <v>29</v>
+        <v>48</v>
       </c>
       <c r="J273" s="1" t="s">
         <v>559</v>
@@ -17371,13 +17371,13 @@
         <v>279</v>
       </c>
       <c r="B274">
-        <v>0.0001361499007502719</v>
+        <v>9.743165579592227E-05</v>
       </c>
       <c r="C274">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D274">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E274">
         <v>0.75</v>
@@ -17389,7 +17389,7 @@
         <v>1</v>
       </c>
       <c r="H274">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="J274" s="1" t="s">
         <v>560</v>
@@ -17421,13 +17421,13 @@
         <v>280</v>
       </c>
       <c r="B275">
-        <v>0.0001361499007502719</v>
+        <v>9.743165579592227E-05</v>
       </c>
       <c r="C275">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D275">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="E275">
         <v>0.75</v>
@@ -17439,7 +17439,7 @@
         <v>1</v>
       </c>
       <c r="H275">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="J275" s="1" t="s">
         <v>561</v>
@@ -17471,7 +17471,7 @@
         <v>281</v>
       </c>
       <c r="B276">
-        <v>9.627251807839305E-05</v>
+        <v>9.743165579592227E-05</v>
       </c>
       <c r="C276">
         <v>1</v>
@@ -17489,7 +17489,7 @@
         <v>1</v>
       </c>
       <c r="H276">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="J276" s="1" t="s">
         <v>562</v>
@@ -17521,7 +17521,7 @@
         <v>282</v>
       </c>
       <c r="B277">
-        <v>9.627251807839305E-05</v>
+        <v>9.743165579592227E-05</v>
       </c>
       <c r="C277">
         <v>1</v>
@@ -17539,7 +17539,7 @@
         <v>1</v>
       </c>
       <c r="H277">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="J277" s="1" t="s">
         <v>563</v>
@@ -17571,7 +17571,7 @@
         <v>283</v>
       </c>
       <c r="B278">
-        <v>9.627251807839305E-05</v>
+        <v>9.743165579592227E-05</v>
       </c>
       <c r="C278">
         <v>1</v>
@@ -17589,7 +17589,7 @@
         <v>1</v>
       </c>
       <c r="H278">
-        <v>41</v>
+        <v>122</v>
       </c>
       <c r="J278" s="1" t="s">
         <v>564</v>
@@ -17621,7 +17621,7 @@
         <v>284</v>
       </c>
       <c r="B279">
-        <v>9.627251807839305E-05</v>
+        <v>9.743165579592227E-05</v>
       </c>
       <c r="C279">
         <v>1</v>
@@ -17639,7 +17639,7 @@
         <v>1</v>
       </c>
       <c r="H279">
-        <v>72</v>
+        <v>18</v>
       </c>
       <c r="J279" s="1" t="s">
         <v>565</v>
@@ -17671,7 +17671,7 @@
         <v>285</v>
       </c>
       <c r="B280">
-        <v>9.627251807839305E-05</v>
+        <v>9.743165579592227E-05</v>
       </c>
       <c r="C280">
         <v>1</v>
@@ -17689,7 +17689,7 @@
         <v>1</v>
       </c>
       <c r="H280">
-        <v>122</v>
+        <v>41</v>
       </c>
       <c r="J280" s="1" t="s">
         <v>566</v>
@@ -17721,7 +17721,7 @@
         <v>286</v>
       </c>
       <c r="B281">
-        <v>9.627251807839305E-05</v>
+        <v>9.743165579592227E-05</v>
       </c>
       <c r="C281">
         <v>1</v>
@@ -17739,7 +17739,7 @@
         <v>1</v>
       </c>
       <c r="H281">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="J281" s="1" t="s">
         <v>567</v>
@@ -17771,7 +17771,7 @@
         <v>287</v>
       </c>
       <c r="B282">
-        <v>9.627251807839305E-05</v>
+        <v>9.743165579592227E-05</v>
       </c>
       <c r="C282">
         <v>1</v>
@@ -17789,7 +17789,7 @@
         <v>1</v>
       </c>
       <c r="H282">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="J282" s="1" t="s">
         <v>568</v>
@@ -17821,7 +17821,7 @@
         <v>288</v>
       </c>
       <c r="B283">
-        <v>9.627251807839305E-05</v>
+        <v>9.743165579592227E-05</v>
       </c>
       <c r="C283">
         <v>1</v>
@@ -17839,7 +17839,7 @@
         <v>1</v>
       </c>
       <c r="H283">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="J283" s="1" t="s">
         <v>569</v>
@@ -17871,7 +17871,7 @@
         <v>289</v>
       </c>
       <c r="B284">
-        <v>9.627251807839305E-05</v>
+        <v>9.743165579592227E-05</v>
       </c>
       <c r="C284">
         <v>1</v>
@@ -17889,7 +17889,7 @@
         <v>1</v>
       </c>
       <c r="H284">
-        <v>35</v>
+        <v>187</v>
       </c>
       <c r="J284" s="1" t="s">
         <v>570</v>
@@ -17921,25 +17921,25 @@
         <v>290</v>
       </c>
       <c r="B285">
-        <v>9.627251807839305E-05</v>
+        <v>7.931474997133176E-05</v>
       </c>
       <c r="C285">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D285">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="E285">
-        <v>0.75</v>
+        <v>0.67</v>
       </c>
       <c r="F285">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="G285" t="b">
         <v>1</v>
       </c>
       <c r="H285">
-        <v>44</v>
+        <v>159</v>
       </c>
       <c r="J285" s="1" t="s">
         <v>571</v>
@@ -17971,25 +17971,25 @@
         <v>291</v>
       </c>
       <c r="B286">
-        <v>9.627251807839305E-05</v>
+        <v>5.608399755284509E-05</v>
       </c>
       <c r="C286">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D286">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E286">
-        <v>0.75</v>
+        <v>0.33</v>
       </c>
       <c r="F286">
-        <v>0.25</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G286" t="b">
         <v>1</v>
       </c>
       <c r="H286">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="J286" s="1" t="s">
         <v>572</v>
@@ -18021,25 +18021,25 @@
         <v>292</v>
       </c>
       <c r="B287">
-        <v>7.837114783815301E-05</v>
+        <v>5.608399755284509E-05</v>
       </c>
       <c r="C287">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D287">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E287">
-        <v>0.67</v>
+        <v>0.33</v>
       </c>
       <c r="F287">
-        <v>0.33</v>
+        <v>0.6699999999999999</v>
       </c>
       <c r="G287" t="b">
         <v>1</v>
       </c>
       <c r="H287">
-        <v>159</v>
+        <v>24</v>
       </c>
       <c r="J287" s="1" t="s">
         <v>573</v>
@@ -18071,7 +18071,7 @@
         <v>293</v>
       </c>
       <c r="B288">
-        <v>5.54167700857323E-05</v>
+        <v>5.608399755284509E-05</v>
       </c>
       <c r="C288">
         <v>2</v>
@@ -18089,7 +18089,7 @@
         <v>1</v>
       </c>
       <c r="H288">
-        <v>186</v>
+        <v>3</v>
       </c>
       <c r="J288" s="1" t="s">
         <v>574</v>
@@ -18121,7 +18121,7 @@
         <v>294</v>
       </c>
       <c r="B289">
-        <v>5.54167700857323E-05</v>
+        <v>5.608399755284509E-05</v>
       </c>
       <c r="C289">
         <v>2</v>
@@ -18139,7 +18139,7 @@
         <v>1</v>
       </c>
       <c r="H289">
-        <v>24</v>
+        <v>42</v>
       </c>
       <c r="J289" s="1" t="s">
         <v>575</v>
@@ -18171,7 +18171,7 @@
         <v>295</v>
       </c>
       <c r="B290">
-        <v>5.54167700857323E-05</v>
+        <v>5.608399755284509E-05</v>
       </c>
       <c r="C290">
         <v>2</v>
@@ -18189,7 +18189,7 @@
         <v>1</v>
       </c>
       <c r="H290">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="J290" s="1" t="s">
         <v>576</v>
@@ -18221,25 +18221,25 @@
         <v>296</v>
       </c>
       <c r="B291">
-        <v>5.54167700857323E-05</v>
+        <v>5.608399755284422E-05</v>
       </c>
       <c r="C291">
         <v>2</v>
       </c>
       <c r="D291">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E291">
+        <v>0.67</v>
+      </c>
+      <c r="F291">
         <v>0.33</v>
       </c>
-      <c r="F291">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G291" t="b">
         <v>1</v>
       </c>
       <c r="H291">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="J291" s="1" t="s">
         <v>577</v>
@@ -18271,25 +18271,25 @@
         <v>297</v>
       </c>
       <c r="B292">
-        <v>5.54167700857323E-05</v>
+        <v>5.608399755284422E-05</v>
       </c>
       <c r="C292">
         <v>2</v>
       </c>
       <c r="D292">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="E292">
+        <v>0.67</v>
+      </c>
+      <c r="F292">
         <v>0.33</v>
       </c>
-      <c r="F292">
-        <v>0.6699999999999999</v>
-      </c>
       <c r="G292" t="b">
         <v>1</v>
       </c>
       <c r="H292">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="J292" s="1" t="s">
         <v>578</v>
@@ -18321,7 +18321,7 @@
         <v>298</v>
       </c>
       <c r="B293">
-        <v>5.541677008573144E-05</v>
+        <v>5.608399755284422E-05</v>
       </c>
       <c r="C293">
         <v>2</v>
@@ -18339,7 +18339,7 @@
         <v>1</v>
       </c>
       <c r="H293">
-        <v>64</v>
+        <v>95</v>
       </c>
       <c r="J293" s="1" t="s">
         <v>579</v>
@@ -18371,25 +18371,25 @@
         <v>299</v>
       </c>
       <c r="B294">
-        <v>5.541677008573144E-05</v>
+        <v>5.196747138778197E-05</v>
       </c>
       <c r="C294">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D294">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="E294">
-        <v>0.67</v>
+        <v>0.64</v>
       </c>
       <c r="F294">
-        <v>0.33</v>
+        <v>0.36</v>
       </c>
       <c r="G294" t="b">
         <v>1</v>
       </c>
       <c r="H294">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="J294" s="1" t="s">
         <v>580</v>
@@ -18421,13 +18421,13 @@
         <v>300</v>
       </c>
       <c r="B295">
-        <v>5.541677008573144E-05</v>
+        <v>3.965737498566588E-05</v>
       </c>
       <c r="C295">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D295">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E295">
         <v>0.67</v>
@@ -18439,7 +18439,7 @@
         <v>1</v>
       </c>
       <c r="H295">
-        <v>95</v>
+        <v>3</v>
       </c>
       <c r="J295" s="1" t="s">
         <v>581</v>
@@ -18471,25 +18471,25 @@
         <v>301</v>
       </c>
       <c r="B296">
-        <v>5.134921794973746E-05</v>
+        <v>3.965737498566588E-05</v>
       </c>
       <c r="C296">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D296">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="E296">
-        <v>0.64</v>
+        <v>0.67</v>
       </c>
       <c r="F296">
-        <v>0.36</v>
+        <v>0.33</v>
       </c>
       <c r="G296" t="b">
         <v>1</v>
       </c>
       <c r="H296">
-        <v>90</v>
+        <v>38</v>
       </c>
       <c r="J296" s="1" t="s">
         <v>582</v>
@@ -18521,7 +18521,7 @@
         <v>302</v>
       </c>
       <c r="B297">
-        <v>3.918557391907651E-05</v>
+        <v>3.965737498566588E-05</v>
       </c>
       <c r="C297">
         <v>1</v>
@@ -18539,7 +18539,7 @@
         <v>1</v>
       </c>
       <c r="H297">
-        <v>3</v>
+        <v>37</v>
       </c>
       <c r="J297" s="1" t="s">
         <v>6</v>
@@ -18571,7 +18571,7 @@
         <v>303</v>
       </c>
       <c r="B298">
-        <v>3.918557391907651E-05</v>
+        <v>3.965737498566588E-05</v>
       </c>
       <c r="C298">
         <v>1</v>
@@ -18589,7 +18589,7 @@
         <v>1</v>
       </c>
       <c r="H298">
-        <v>38</v>
+        <v>13</v>
       </c>
       <c r="J298" s="1" t="s">
         <v>583</v>
@@ -18621,7 +18621,7 @@
         <v>304</v>
       </c>
       <c r="B299">
-        <v>3.918557391907651E-05</v>
+        <v>3.965737498566588E-05</v>
       </c>
       <c r="C299">
         <v>1</v>
@@ -18639,7 +18639,7 @@
         <v>1</v>
       </c>
       <c r="H299">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="J299" s="1" t="s">
         <v>584</v>
@@ -18671,25 +18671,25 @@
         <v>305</v>
       </c>
       <c r="B300">
-        <v>3.918557391907651E-05</v>
+        <v>1.937987762240268E-05</v>
       </c>
       <c r="C300">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D300">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E300">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F300">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G300" t="b">
         <v>1</v>
       </c>
       <c r="H300">
-        <v>13</v>
+        <v>74</v>
       </c>
       <c r="J300" s="1" t="s">
         <v>585</v>
@@ -18721,25 +18721,25 @@
         <v>306</v>
       </c>
       <c r="B301">
-        <v>3.918557391907651E-05</v>
+        <v>1.937987762240268E-05</v>
       </c>
       <c r="C301">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D301">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E301">
-        <v>0.67</v>
+        <v>0.6</v>
       </c>
       <c r="F301">
-        <v>0.33</v>
+        <v>0.4</v>
       </c>
       <c r="G301" t="b">
         <v>1</v>
       </c>
       <c r="H301">
-        <v>18</v>
+        <v>101</v>
       </c>
       <c r="J301" s="1" t="s">
         <v>586</v>
@@ -18771,7 +18771,7 @@
         <v>307</v>
       </c>
       <c r="B302">
-        <v>1.914931654931284E-05</v>
+        <v>1.937987762240268E-05</v>
       </c>
       <c r="C302">
         <v>2</v>
@@ -18789,7 +18789,7 @@
         <v>1</v>
       </c>
       <c r="H302">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="J302" s="1" t="s">
         <v>587</v>
@@ -18821,25 +18821,25 @@
         <v>308</v>
       </c>
       <c r="B303">
-        <v>1.914931654931284E-05</v>
+        <v>1.197898363661462E-05</v>
       </c>
       <c r="C303">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D303">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E303">
-        <v>0.6</v>
+        <v>0.57</v>
       </c>
       <c r="F303">
-        <v>0.4</v>
+        <v>0.43</v>
       </c>
       <c r="G303" t="b">
         <v>1</v>
       </c>
       <c r="H303">
-        <v>101</v>
+        <v>286</v>
       </c>
       <c r="J303" s="1" t="s">
         <v>588</v>
@@ -18871,25 +18871,25 @@
         <v>309</v>
       </c>
       <c r="B304">
-        <v>1.914931654931284E-05</v>
+        <v>0</v>
       </c>
       <c r="C304">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D304">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E304">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="F304">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="G304" t="b">
         <v>1</v>
       </c>
       <c r="H304">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="J304" s="1" t="s">
         <v>589</v>
@@ -18921,25 +18921,25 @@
         <v>310</v>
       </c>
       <c r="B305">
-        <v>1.183647049099028E-05</v>
+        <v>0</v>
       </c>
       <c r="C305">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D305">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E305">
-        <v>0.57</v>
+        <v>0.5</v>
       </c>
       <c r="F305">
-        <v>0.43</v>
+        <v>0.5</v>
       </c>
       <c r="G305" t="b">
         <v>1</v>
       </c>
       <c r="H305">
-        <v>286</v>
+        <v>16</v>
       </c>
       <c r="J305" s="1" t="s">
         <v>590</v>
@@ -18989,10 +18989,10 @@
         <v>1</v>
       </c>
       <c r="H306">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="J306" s="1" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="K306">
         <v>0.0008260590668207302</v>
@@ -19039,10 +19039,10 @@
         <v>1</v>
       </c>
       <c r="H307">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="J307" s="1" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="K307">
         <v>0.0008260590668207302</v>
@@ -19089,10 +19089,10 @@
         <v>1</v>
       </c>
       <c r="H308">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="J308" s="1" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="K308">
         <v>0.0007982846744044901</v>
@@ -19139,10 +19139,10 @@
         <v>1</v>
       </c>
       <c r="H309">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="J309" s="1" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="K309">
         <v>0.0007982846744044901</v>
@@ -19189,10 +19189,10 @@
         <v>1</v>
       </c>
       <c r="H310">
-        <v>19</v>
+        <v>14</v>
       </c>
       <c r="J310" s="1" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K310">
         <v>0.000792488290362892</v>
@@ -19239,10 +19239,10 @@
         <v>1</v>
       </c>
       <c r="H311">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="J311" s="1" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="K311">
         <v>0.0007241929843725037</v>
@@ -19289,10 +19289,10 @@
         <v>1</v>
       </c>
       <c r="H312">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="J312" s="1" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="K312">
         <v>0.0007241929843725037</v>
@@ -19339,10 +19339,10 @@
         <v>1</v>
       </c>
       <c r="H313">
-        <v>4</v>
+        <v>34</v>
       </c>
       <c r="J313" s="1" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="K313">
         <v>0.0007241929843725037</v>
@@ -19389,7 +19389,7 @@
         <v>1</v>
       </c>
       <c r="H314">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="J314" s="1" t="s">
         <v>591</v>
@@ -19439,7 +19439,7 @@
         <v>1</v>
       </c>
       <c r="H315">
-        <v>34</v>
+        <v>13</v>
       </c>
       <c r="J315" s="1" t="s">
         <v>592</v>
@@ -19489,7 +19489,7 @@
         <v>1</v>
       </c>
       <c r="H316">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="J316" s="1" t="s">
         <v>593</v>
@@ -19539,7 +19539,7 @@
         <v>1</v>
       </c>
       <c r="H317">
-        <v>13</v>
+        <v>22</v>
       </c>
       <c r="J317" s="1" t="s">
         <v>594</v>
@@ -19589,7 +19589,7 @@
         <v>1</v>
       </c>
       <c r="H318">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="J318" s="1" t="s">
         <v>595</v>
@@ -19639,7 +19639,7 @@
         <v>1</v>
       </c>
       <c r="H319">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="J319" s="1" t="s">
         <v>596</v>
@@ -19724,10 +19724,10 @@
         <v>0</v>
       </c>
       <c r="C321">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D321">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="E321">
         <v>0.5</v>
@@ -19739,7 +19739,7 @@
         <v>1</v>
       </c>
       <c r="H321">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="J321" s="1" t="s">
         <v>598</v>
@@ -19824,10 +19824,10 @@
         <v>0</v>
       </c>
       <c r="C323">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D323">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="E323">
         <v>0.5</v>
@@ -19839,7 +19839,7 @@
         <v>1</v>
       </c>
       <c r="H323">
-        <v>42</v>
+        <v>23</v>
       </c>
       <c r="J323" s="1" t="s">
         <v>600</v>
@@ -19889,7 +19889,7 @@
         <v>1</v>
       </c>
       <c r="H324">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="J324" s="1" t="s">
         <v>601</v>
@@ -19917,30 +19917,6 @@
       </c>
     </row>
     <row r="325" spans="1:17">
-      <c r="A325" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="B325">
-        <v>0</v>
-      </c>
-      <c r="C325">
-        <v>1</v>
-      </c>
-      <c r="D325">
-        <v>2</v>
-      </c>
-      <c r="E325">
-        <v>0.5</v>
-      </c>
-      <c r="F325">
-        <v>0.5</v>
-      </c>
-      <c r="G325" t="b">
-        <v>1</v>
-      </c>
-      <c r="H325">
-        <v>23</v>
-      </c>
       <c r="J325" s="1" t="s">
         <v>602</v>
       </c>
@@ -19967,30 +19943,6 @@
       </c>
     </row>
     <row r="326" spans="1:17">
-      <c r="A326" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="B326">
-        <v>0</v>
-      </c>
-      <c r="C326">
-        <v>1</v>
-      </c>
-      <c r="D326">
-        <v>2</v>
-      </c>
-      <c r="E326">
-        <v>0.5</v>
-      </c>
-      <c r="F326">
-        <v>0.5</v>
-      </c>
-      <c r="G326" t="b">
-        <v>1</v>
-      </c>
-      <c r="H326">
-        <v>56</v>
-      </c>
       <c r="J326" s="1" t="s">
         <v>603</v>
       </c>
@@ -23788,7 +23740,7 @@
     </row>
     <row r="472" spans="10:17">
       <c r="J472" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K472">
         <v>0.000693799841524781</v>
@@ -23814,7 +23766,7 @@
     </row>
     <row r="473" spans="10:17">
       <c r="J473" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="K473">
         <v>0.0006672676205849473</v>
@@ -23840,7 +23792,7 @@
     </row>
     <row r="474" spans="10:17">
       <c r="J474" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="K474">
         <v>0.0006672676205849473</v>
@@ -23866,7 +23818,7 @@
     </row>
     <row r="475" spans="10:17">
       <c r="J475" s="1" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="K475">
         <v>0.0006629195729496202</v>
@@ -23892,7 +23844,7 @@
     </row>
     <row r="476" spans="10:17">
       <c r="J476" s="1" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="K476">
         <v>0.0006629195729496202</v>
@@ -23918,7 +23870,7 @@
     </row>
     <row r="477" spans="10:17">
       <c r="J477" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="K477">
         <v>0.0006542804675156002</v>
@@ -23944,7 +23896,7 @@
     </row>
     <row r="478" spans="10:17">
       <c r="J478" s="1" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="K478">
         <v>0.0006542804675156002</v>
@@ -23970,7 +23922,7 @@
     </row>
     <row r="479" spans="10:17">
       <c r="J479" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="K479">
         <v>0.0006542804675156002</v>
@@ -23996,7 +23948,7 @@
     </row>
     <row r="480" spans="10:17">
       <c r="J480" s="1" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="K480">
         <v>0.0006186880963588559</v>
@@ -24022,7 +23974,7 @@
     </row>
     <row r="481" spans="10:17">
       <c r="J481" s="1" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="K481">
         <v>0.0005826564072361619</v>
@@ -24048,7 +24000,7 @@
     </row>
     <row r="482" spans="10:17">
       <c r="J482" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K482">
         <v>0.0005501127325196572</v>
@@ -24074,7 +24026,7 @@
     </row>
     <row r="483" spans="10:17">
       <c r="J483" s="1" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="K483">
         <v>0.0005461749611395322</v>
@@ -24100,7 +24052,7 @@
     </row>
     <row r="484" spans="10:17">
       <c r="J484" s="1" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="K484">
         <v>0.0005461749611395322</v>
@@ -24126,7 +24078,7 @@
     </row>
     <row r="485" spans="10:17">
       <c r="J485" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="K485">
         <v>0.0005461749611395322</v>
@@ -24152,7 +24104,7 @@
     </row>
     <row r="486" spans="10:17">
       <c r="J486" s="1" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="K486">
         <v>0.0005461749611395322</v>
@@ -24178,7 +24130,7 @@
     </row>
     <row r="487" spans="10:17">
       <c r="J487" s="1" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="K487">
         <v>0.0005391380407946595</v>
@@ -24204,7 +24156,7 @@
     </row>
     <row r="488" spans="10:17">
       <c r="J488" s="1" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="K488">
         <v>0.0005321368584784917</v>
@@ -24230,7 +24182,7 @@
     </row>
     <row r="489" spans="10:17">
       <c r="J489" s="1" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="K489">
         <v>0.0005092348201506365</v>
@@ -24256,7 +24208,7 @@
     </row>
     <row r="490" spans="10:17">
       <c r="J490" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="K490">
         <v>0.0005044536295508296</v>
@@ -34136,7 +34088,7 @@
     </row>
     <row r="870" spans="10:17">
       <c r="J870" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="K870">
         <v>0.0004815249655774589</v>
@@ -34162,7 +34114,7 @@
     </row>
     <row r="871" spans="10:17">
       <c r="J871" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="K871">
         <v>0.0004769692938056833</v>
@@ -34188,7 +34140,7 @@
     </row>
     <row r="872" spans="10:17">
       <c r="J872" s="1" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="K872">
         <v>0.0004339561177434405</v>
@@ -34214,7 +34166,7 @@
     </row>
     <row r="873" spans="10:17">
       <c r="J873" s="1" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="K873">
         <v>0.0004339561177434405</v>
@@ -34240,7 +34192,7 @@
     </row>
     <row r="874" spans="10:17">
       <c r="J874" s="1" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="K874">
         <v>0.0004339561177434405</v>
@@ -34266,7 +34218,7 @@
     </row>
     <row r="875" spans="10:17">
       <c r="J875" s="1" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="K875">
         <v>0.0003956178246854835</v>
@@ -34292,7 +34244,7 @@
     </row>
     <row r="876" spans="10:17">
       <c r="J876" s="1" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="K876">
         <v>0.0003931634880253357</v>
@@ -34318,7 +34270,7 @@
     </row>
     <row r="877" spans="10:17">
       <c r="J877" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="K877">
         <v>0.0003661717213855312</v>
@@ -34344,7 +34296,7 @@
     </row>
     <row r="878" spans="10:17">
       <c r="J878" s="1" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K878">
         <v>0.0003568264924674955</v>
@@ -34370,7 +34322,7 @@
     </row>
     <row r="879" spans="10:17">
       <c r="J879" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="K879">
         <v>0.0003568264924674955</v>
@@ -34396,7 +34348,7 @@
     </row>
     <row r="880" spans="10:17">
       <c r="J880" s="1" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="K880">
         <v>0.0003176077342048643</v>
@@ -34422,7 +34374,7 @@
     </row>
     <row r="881" spans="10:17">
       <c r="J881" s="1" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="K881">
         <v>0.0003176077342048643</v>
@@ -34448,7 +34400,7 @@
     </row>
     <row r="882" spans="10:17">
       <c r="J882" s="1" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="K882">
         <v>0.0003107667235429511</v>
@@ -34474,7 +34426,7 @@
     </row>
     <row r="883" spans="10:17">
       <c r="J883" s="1" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="K883">
         <v>0.0003084236792010527</v>
@@ -34500,7 +34452,7 @@
     </row>
     <row r="884" spans="10:17">
       <c r="J884" s="1" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="K884">
         <v>0.0003084236792010527</v>
@@ -34552,7 +34504,7 @@
     </row>
     <row r="886" spans="10:17">
       <c r="J886" s="1" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="K886">
         <v>0.0002780085684976709</v>
@@ -34578,7 +34530,7 @@
     </row>
     <row r="887" spans="10:17">
       <c r="J887" s="1" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="K887">
         <v>0.0002780085684976709</v>
@@ -34604,7 +34556,7 @@
     </row>
     <row r="888" spans="10:17">
       <c r="J888" s="1" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="K888">
         <v>0.0002780085684976709</v>
@@ -34630,7 +34582,7 @@
     </row>
     <row r="889" spans="10:17">
       <c r="J889" s="1" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="K889">
         <v>0.0002780085684976709</v>
@@ -34656,7 +34608,7 @@
     </row>
     <row r="890" spans="10:17">
       <c r="J890" s="1" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="K890">
         <v>0.0002780085684976709</v>
@@ -34682,7 +34634,7 @@
     </row>
     <row r="891" spans="10:17">
       <c r="J891" s="1" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="K891">
         <v>0.0002517665016249378</v>
@@ -34708,7 +34660,7 @@
     </row>
     <row r="892" spans="10:17">
       <c r="J892" s="1" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="K892">
         <v>0.0002381101420136213</v>
@@ -34734,7 +34686,7 @@
     </row>
     <row r="893" spans="10:17">
       <c r="J893" s="1" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="K893">
         <v>0.0002381101420136213</v>
@@ -34760,7 +34712,7 @@
     </row>
     <row r="894" spans="10:17">
       <c r="J894" s="1" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="K894">
         <v>0.0002381101420136213</v>
@@ -34786,7 +34738,7 @@
     </row>
     <row r="895" spans="10:17">
       <c r="J895" s="1" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="K895">
         <v>0.0002381101420136213</v>
@@ -34812,7 +34764,7 @@
     </row>
     <row r="896" spans="10:17">
       <c r="J896" s="1" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="K896">
         <v>0.0002381101420136213</v>
@@ -34838,7 +34790,7 @@
     </row>
     <row r="897" spans="10:17">
       <c r="J897" s="1" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="K897">
         <v>0.0001980495930073792</v>
@@ -34864,7 +34816,7 @@
     </row>
     <row r="898" spans="10:17">
       <c r="J898" s="1" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="K898">
         <v>0.0001580595574316638</v>
@@ -34890,7 +34842,7 @@
     </row>
     <row r="899" spans="10:17">
       <c r="J899" s="1" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="K899">
         <v>0.0001580595574316638</v>
@@ -34916,7 +34868,7 @@
     </row>
     <row r="900" spans="10:17">
       <c r="J900" s="1" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="K900">
         <v>0.0001580595574316638</v>
@@ -34942,7 +34894,7 @@
     </row>
     <row r="901" spans="10:17">
       <c r="J901" s="1" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="K901">
         <v>0.0001580595574316638</v>
@@ -34968,7 +34920,7 @@
     </row>
     <row r="902" spans="10:17">
       <c r="J902" s="1" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="K902">
         <v>0.0001580595574316638</v>
@@ -34994,7 +34946,7 @@
     </row>
     <row r="903" spans="10:17">
       <c r="J903" s="1" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="K903">
         <v>0.0001580595574316638</v>
@@ -35020,7 +34972,7 @@
     </row>
     <row r="904" spans="10:17">
       <c r="J904" s="1" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="K904">
         <v>0.0001580595574316638</v>
@@ -35046,7 +34998,7 @@
     </row>
     <row r="905" spans="10:17">
       <c r="J905" s="1" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="K905">
         <v>0.0001580595574316638</v>
@@ -35072,7 +35024,7 @@
     </row>
     <row r="906" spans="10:17">
       <c r="J906" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="K906">
         <v>0.0001580595574316638</v>
@@ -35098,7 +35050,7 @@
     </row>
     <row r="907" spans="10:17">
       <c r="J907" s="1" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="K907">
         <v>0.0001389791037973846</v>
@@ -35124,7 +35076,7 @@
     </row>
     <row r="908" spans="10:17">
       <c r="J908" s="1" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="K908">
         <v>0.000118544310855851</v>
@@ -35150,7 +35102,7 @@
     </row>
     <row r="909" spans="10:17">
       <c r="J909" s="1" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="K909">
         <v>0.000118544310855851</v>
@@ -35176,7 +35128,7 @@
     </row>
     <row r="910" spans="10:17">
       <c r="J910" s="1" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="K910">
         <v>0.000118544310855851</v>
@@ -35202,7 +35154,7 @@
     </row>
     <row r="911" spans="10:17">
       <c r="J911" s="1" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="K911">
         <v>0.000118544310855851</v>
@@ -35228,7 +35180,7 @@
     </row>
     <row r="912" spans="10:17">
       <c r="J912" s="1" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="K912">
         <v>0.000118544310855851</v>
@@ -35254,7 +35206,7 @@
     </row>
     <row r="913" spans="10:17">
       <c r="J913" s="1" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="K913">
         <v>0.0001134759630709641</v>
@@ -35280,7 +35232,7 @@
     </row>
     <row r="914" spans="10:17">
       <c r="J914" s="1" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="K914">
         <v>0.0001134759630709641</v>
@@ -35306,7 +35258,7 @@
     </row>
     <row r="915" spans="10:17">
       <c r="J915" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="K915">
         <v>0.0001075872355248418</v>
@@ -35332,7 +35284,7 @@
     </row>
     <row r="916" spans="10:17">
       <c r="J916" s="1" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="K916">
         <v>8.760375611563645E-05</v>
@@ -35358,7 +35310,7 @@
     </row>
     <row r="917" spans="10:17">
       <c r="J917" s="1" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="K917">
         <v>8.418464804356173E-05</v>
@@ -35384,7 +35336,7 @@
     </row>
     <row r="918" spans="10:17">
       <c r="J918" s="1" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="K918">
         <v>8.023962298915294E-05</v>
@@ -35410,7 +35362,7 @@
     </row>
     <row r="919" spans="10:17">
       <c r="J919" s="1" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="K919">
         <v>8.023962298915294E-05</v>
@@ -35436,7 +35388,7 @@
     </row>
     <row r="920" spans="10:17">
       <c r="J920" s="1" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="K920">
         <v>8.023962298915294E-05</v>
@@ -35462,7 +35414,7 @@
     </row>
     <row r="921" spans="10:17">
       <c r="J921" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="K921">
         <v>6.306074915518923E-05</v>
@@ -35488,7 +35440,7 @@
     </row>
     <row r="922" spans="10:17">
       <c r="J922" s="1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="K922">
         <v>6.306074915518923E-05</v>
@@ -35514,7 +35466,7 @@
     </row>
     <row r="923" spans="10:17">
       <c r="J923" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="K923">
         <v>4.459068335433815E-05</v>
@@ -35540,7 +35492,7 @@
     </row>
     <row r="924" spans="10:17">
       <c r="J924" s="1" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="K924">
         <v>4.459068335433815E-05</v>
@@ -35566,7 +35518,7 @@
     </row>
     <row r="925" spans="10:17">
       <c r="J925" s="1" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K925">
         <v>4.459068335433815E-05</v>
@@ -35592,7 +35544,7 @@
     </row>
     <row r="926" spans="10:17">
       <c r="J926" s="1" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="K926">
         <v>4.459068335433815E-05</v>
@@ -35618,7 +35570,7 @@
     </row>
     <row r="927" spans="10:17">
       <c r="J927" s="1" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="K927">
         <v>4.459068335433815E-05</v>
@@ -35644,7 +35596,7 @@
     </row>
     <row r="928" spans="10:17">
       <c r="J928" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="K928">
         <v>4.459068335433815E-05</v>
@@ -35670,7 +35622,7 @@
     </row>
     <row r="929" spans="10:17">
       <c r="J929" s="1" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="K929">
         <v>4.459068335433815E-05</v>
@@ -35696,7 +35648,7 @@
     </row>
     <row r="930" spans="10:17">
       <c r="J930" s="1" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="K930">
         <v>4.459068335433815E-05</v>
@@ -35722,7 +35674,7 @@
     </row>
     <row r="931" spans="10:17">
       <c r="J931" s="1" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K931">
         <v>4.459068335433815E-05</v>
@@ -35748,7 +35700,7 @@
     </row>
     <row r="932" spans="10:17">
       <c r="J932" s="1" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="K932">
         <v>4.459068335433815E-05</v>
@@ -35774,7 +35726,7 @@
     </row>
     <row r="933" spans="10:17">
       <c r="J933" s="1" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="K933">
         <v>4.459068335433815E-05</v>
@@ -35800,7 +35752,7 @@
     </row>
     <row r="934" spans="10:17">
       <c r="J934" s="1" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="K934">
         <v>2.963823756347716E-05</v>
@@ -35826,7 +35778,7 @@
     </row>
     <row r="935" spans="10:17">
       <c r="J935" s="1" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="K935">
         <v>2.095739876355244E-05</v>
@@ -35852,7 +35804,7 @@
     </row>
     <row r="936" spans="10:17">
       <c r="J936" s="1" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="K936">
         <v>2.095739876355244E-05</v>
@@ -35878,7 +35830,7 @@
     </row>
     <row r="937" spans="10:17">
       <c r="J937" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="K937">
         <v>2.095739876355244E-05</v>
@@ -35904,7 +35856,7 @@
     </row>
     <row r="938" spans="10:17">
       <c r="J938" s="1" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="K938">
         <v>1.816494249617832E-05</v>
@@ -35930,7 +35882,7 @@
     </row>
     <row r="939" spans="10:17">
       <c r="J939" s="1" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="K939">
         <v>1.481911878173858E-05</v>
@@ -35956,7 +35908,7 @@
     </row>
     <row r="940" spans="10:17">
       <c r="J940" s="1" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K940">
         <v>1.481911878173858E-05</v>
@@ -35982,7 +35934,7 @@
     </row>
     <row r="941" spans="10:17">
       <c r="J941" s="1" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="K941">
         <v>1.481911878173858E-05</v>
@@ -36008,7 +35960,7 @@
     </row>
     <row r="942" spans="10:17">
       <c r="J942" s="1" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K942">
         <v>1.481911878173858E-05</v>
@@ -36034,7 +35986,7 @@
     </row>
     <row r="943" spans="10:17">
       <c r="J943" s="1" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="K943">
         <v>1.481911878173858E-05</v>
@@ -36060,7 +36012,7 @@
     </row>
     <row r="944" spans="10:17">
       <c r="J944" s="1" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="K944">
         <v>1.047869938177611E-05</v>
@@ -36086,7 +36038,7 @@
     </row>
     <row r="945" spans="10:17">
       <c r="J945" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="K945">
         <v>1.047869938177611E-05</v>
@@ -36112,7 +36064,7 @@
     </row>
     <row r="946" spans="10:17">
       <c r="J946" s="1" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K946">
         <v>1.047869938177611E-05</v>
@@ -36138,7 +36090,7 @@
     </row>
     <row r="947" spans="10:17">
       <c r="J947" s="1" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="K947">
         <v>1.047869938177611E-05</v>
@@ -36164,7 +36116,7 @@
     </row>
     <row r="948" spans="10:17">
       <c r="J948" s="1" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="K948">
         <v>1.047869938177611E-05</v>
@@ -36190,7 +36142,7 @@
     </row>
     <row r="949" spans="10:17">
       <c r="J949" s="1" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="K949">
         <v>6.27162492221421E-06</v>
@@ -36216,7 +36168,7 @@
     </row>
     <row r="950" spans="10:17">
       <c r="J950" s="1" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="K950">
         <v>6.27162492221421E-06</v>
@@ -36242,7 +36194,7 @@
     </row>
     <row r="951" spans="10:17">
       <c r="J951" s="1" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="K951">
         <v>6.27162492221421E-06</v>
@@ -36268,7 +36220,7 @@
     </row>
     <row r="952" spans="10:17">
       <c r="J952" s="1" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="K952">
         <v>3.654876928061941E-06</v>
@@ -36294,7 +36246,7 @@
     </row>
     <row r="953" spans="10:17">
       <c r="J953" s="1" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="K953">
         <v>0</v>
@@ -36320,7 +36272,7 @@
     </row>
     <row r="954" spans="10:17">
       <c r="J954" s="1" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="K954">
         <v>0</v>
@@ -36346,7 +36298,7 @@
     </row>
     <row r="955" spans="10:17">
       <c r="J955" s="1" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="K955">
         <v>0</v>
@@ -36372,7 +36324,7 @@
     </row>
     <row r="956" spans="10:17">
       <c r="J956" s="1" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="K956">
         <v>0</v>
@@ -36398,7 +36350,7 @@
     </row>
     <row r="957" spans="10:17">
       <c r="J957" s="1" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="K957">
         <v>0</v>
@@ -36424,7 +36376,7 @@
     </row>
     <row r="958" spans="10:17">
       <c r="J958" s="1" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K958">
         <v>0</v>
@@ -36450,7 +36402,7 @@
     </row>
     <row r="959" spans="10:17">
       <c r="J959" s="1" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="K959">
         <v>0</v>
@@ -36476,7 +36428,7 @@
     </row>
     <row r="960" spans="10:17">
       <c r="J960" s="1" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K960">
         <v>0</v>
@@ -36502,7 +36454,7 @@
     </row>
     <row r="961" spans="10:17">
       <c r="J961" s="1" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="K961">
         <v>0</v>
@@ -36528,7 +36480,7 @@
     </row>
     <row r="962" spans="10:17">
       <c r="J962" s="1" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K962">
         <v>0</v>
@@ -36554,7 +36506,7 @@
     </row>
     <row r="963" spans="10:17">
       <c r="J963" s="1" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="K963">
         <v>0</v>
@@ -36580,7 +36532,7 @@
     </row>
     <row r="964" spans="10:17">
       <c r="J964" s="1" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="K964">
         <v>0</v>
@@ -36606,7 +36558,7 @@
     </row>
     <row r="965" spans="10:17">
       <c r="J965" s="1" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="K965">
         <v>0</v>
@@ -36632,7 +36584,7 @@
     </row>
     <row r="966" spans="10:17">
       <c r="J966" s="1" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="K966">
         <v>0</v>
@@ -36658,7 +36610,7 @@
     </row>
     <row r="967" spans="10:17">
       <c r="J967" s="1" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="K967">
         <v>0</v>
@@ -36684,7 +36636,7 @@
     </row>
     <row r="968" spans="10:17">
       <c r="J968" s="1" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="K968">
         <v>0</v>
@@ -36710,7 +36662,7 @@
     </row>
     <row r="969" spans="10:17">
       <c r="J969" s="1" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="K969">
         <v>0</v>
@@ -36736,7 +36688,7 @@
     </row>
     <row r="970" spans="10:17">
       <c r="J970" s="1" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="K970">
         <v>0</v>
@@ -36762,7 +36714,7 @@
     </row>
     <row r="971" spans="10:17">
       <c r="J971" s="1" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K971">
         <v>0</v>
@@ -36788,7 +36740,7 @@
     </row>
     <row r="972" spans="10:17">
       <c r="J972" s="1" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="K972">
         <v>0</v>
@@ -36814,7 +36766,7 @@
     </row>
     <row r="973" spans="10:17">
       <c r="J973" s="1" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="K973">
         <v>0</v>
